--- a/parts/ilemt_parts.xlsx
+++ b/parts/ilemt_parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robma\Documents\Work\ilemt_hw\parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD4C709-D690-47A8-9844-C44971B5CA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B78059-1624-4393-A46E-EC62DA32631D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2928" windowWidth="19536" windowHeight="22236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4692" yWindow="1536" windowWidth="16404" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2212,7 +2212,7 @@
   <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+      <selection activeCell="R91" sqref="R91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2286,19 +2286,19 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>559</v>
+        <v>618</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>560</v>
+        <v>617</v>
       </c>
       <c r="D2" t="s">
-        <v>561</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>562</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -2307,22 +2307,22 @@
         <v>20</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>0.89</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="J2" s="1">
-        <v>0.89</v>
+        <v>21.55</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2495</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>563</v>
+        <v>287</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
@@ -2336,19 +2336,19 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -2357,72 +2357,72 @@
         <v>20</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>0.67</v>
+        <v>4.08</v>
       </c>
       <c r="J3" s="1">
-        <v>5.36</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="K3">
-        <v>532</v>
+        <v>4787</v>
       </c>
       <c r="L3" t="s">
         <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>97</v>
+      <c r="A4">
+        <v>733910060</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>398</v>
+        <v>186</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>0.95</v>
+        <v>3.14</v>
       </c>
       <c r="J4" s="1">
-        <v>4.75</v>
+        <v>12.56</v>
       </c>
       <c r="K4">
-        <v>6662</v>
+        <v>5606</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="N4" t="s">
         <v>22</v>
@@ -2436,19 +2436,19 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>369</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>371</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>372</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>373</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -2457,22 +2457,22 @@
         <v>20</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>0.34</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>1.02</v>
+        <v>2.83</v>
       </c>
       <c r="K5">
-        <v>91338</v>
+        <v>5409</v>
       </c>
       <c r="L5" t="s">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>374</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
         <v>22</v>
@@ -2486,19 +2486,19 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -2507,22 +2507,22 @@
         <v>20</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.5</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K6">
-        <v>10759239</v>
+        <v>775938</v>
       </c>
       <c r="L6" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="M6" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="N6" t="s">
         <v>22</v>
@@ -2535,44 +2535,44 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>542</v>
+      <c r="A7">
+        <v>22232031</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
-        <v>543</v>
+        <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>544</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="J7" s="1">
-        <v>0.81</v>
+        <v>0.24</v>
       </c>
       <c r="K7">
-        <v>32779</v>
+        <v>33319</v>
       </c>
       <c r="L7" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="M7" t="s">
-        <v>545</v>
+        <v>199</v>
       </c>
       <c r="N7" t="s">
         <v>22</v>
@@ -2581,24 +2581,21 @@
         <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" t="s">
-        <v>288</v>
+        <v>207</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -2607,22 +2604,22 @@
         <v>20</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0.47</v>
+        <v>0.1</v>
       </c>
       <c r="J8" s="1">
-        <v>3.29</v>
-      </c>
-      <c r="K8">
-        <v>5202</v>
+        <v>0.1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>208</v>
       </c>
       <c r="L8" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="N8" t="s">
         <v>22</v>
@@ -2631,24 +2628,21 @@
         <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>555</v>
+        <v>210</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>556</v>
+        <v>212</v>
       </c>
       <c r="D9" t="s">
-        <v>557</v>
-      </c>
-      <c r="E9" t="s">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -2657,22 +2651,22 @@
         <v>20</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I9">
-        <v>0.1</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="K9">
-        <v>377237</v>
+        <v>2.11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>214</v>
       </c>
       <c r="L9" t="s">
-        <v>71</v>
+        <v>215</v>
       </c>
       <c r="M9" t="s">
-        <v>558</v>
+        <v>216</v>
       </c>
       <c r="N9" t="s">
         <v>22</v>
@@ -2681,24 +2675,21 @@
         <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="D10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E10" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -2707,22 +2698,22 @@
         <v>20</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>0.215</v>
+        <v>0.16</v>
       </c>
       <c r="J10" s="1">
-        <v>2.79</v>
-      </c>
-      <c r="K10">
-        <v>7889</v>
+        <v>1.28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>220</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="M10" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="N10" t="s">
         <v>22</v>
@@ -2731,24 +2722,21 @@
         <v>30</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" t="s">
-        <v>578</v>
+        <v>224</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
@@ -2757,22 +2745,22 @@
         <v>20</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J11" s="1">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="K11">
-        <v>1133837</v>
+        <v>6847</v>
       </c>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="M11" t="s">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="N11" t="s">
         <v>22</v>
@@ -2786,19 +2774,16 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>551</v>
+        <v>231</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>552</v>
+        <v>232</v>
       </c>
       <c r="D12" t="s">
-        <v>553</v>
-      </c>
-      <c r="E12" t="s">
-        <v>88</v>
+        <v>233</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
@@ -2807,22 +2792,22 @@
         <v>20</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0.41499999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J12" s="1">
-        <v>5.39</v>
-      </c>
-      <c r="K12">
-        <v>249174</v>
+        <v>0.1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>234</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="M12" t="s">
-        <v>554</v>
+        <v>235</v>
       </c>
       <c r="N12" t="s">
         <v>22</v>
@@ -2831,24 +2816,24 @@
         <v>30</v>
       </c>
       <c r="P12" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="B13" t="s">
-        <v>336</v>
+        <v>190</v>
       </c>
       <c r="C13" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="D13" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="E13" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
@@ -2857,28 +2842,28 @@
         <v>20</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
       <c r="J13" s="1">
-        <v>1.68</v>
+        <v>1.48</v>
       </c>
       <c r="K13">
-        <v>2215457</v>
+        <v>26552</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="M13" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="N13" t="s">
         <v>22</v>
       </c>
       <c r="O13" t="s">
-        <v>30</v>
+        <v>241</v>
       </c>
       <c r="P13" t="s">
         <v>31</v>
@@ -2886,19 +2871,19 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>329</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -2907,22 +2892,22 @@
         <v>20</v>
       </c>
       <c r="H14">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>0.03</v>
+        <v>13.08</v>
       </c>
       <c r="J14" s="1">
-        <v>1.56</v>
+        <v>26.16</v>
       </c>
       <c r="K14">
-        <v>517285</v>
+        <v>1099</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="M14" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="N14" t="s">
         <v>22</v>
@@ -2936,19 +2921,19 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>364</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>366</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>367</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -2957,28 +2942,28 @@
         <v>20</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I15">
-        <v>0.13300000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="J15" s="1">
-        <v>1.59</v>
+        <v>5.36</v>
       </c>
       <c r="K15">
-        <v>85601</v>
+        <v>532</v>
       </c>
       <c r="L15" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="M15" t="s">
-        <v>368</v>
+        <v>47</v>
       </c>
       <c r="N15" t="s">
         <v>22</v>
       </c>
       <c r="O15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P15" t="s">
         <v>23</v>
@@ -2986,19 +2971,19 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -3010,19 +2995,19 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.1</v>
+        <v>1.58</v>
       </c>
       <c r="J16" s="1">
-        <v>0.1</v>
+        <v>1.58</v>
       </c>
       <c r="K16">
-        <v>446502</v>
+        <v>1713</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="M16" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="N16" t="s">
         <v>22</v>
@@ -3034,21 +3019,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>400</v>
+        <v>242</v>
       </c>
       <c r="B17" t="s">
         <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>401</v>
+        <v>243</v>
       </c>
       <c r="D17" t="s">
-        <v>402</v>
+        <v>244</v>
       </c>
       <c r="E17" t="s">
-        <v>403</v>
+        <v>245</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -3057,22 +3042,22 @@
         <v>20</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I17">
-        <v>0.4</v>
+        <v>0.215</v>
       </c>
       <c r="J17" s="1">
-        <v>1.2</v>
+        <v>2.79</v>
       </c>
       <c r="K17">
-        <v>16463</v>
+        <v>7889</v>
       </c>
       <c r="L17" t="s">
         <v>106</v>
       </c>
       <c r="M17" t="s">
-        <v>404</v>
+        <v>246</v>
       </c>
       <c r="N17" t="s">
         <v>22</v>
@@ -3084,21 +3069,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>395</v>
+        <v>277</v>
       </c>
       <c r="B18" t="s">
         <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>396</v>
+        <v>278</v>
       </c>
       <c r="D18" t="s">
-        <v>397</v>
+        <v>279</v>
       </c>
       <c r="E18" t="s">
-        <v>398</v>
+        <v>280</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -3107,122 +3092,125 @@
         <v>20</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0.46</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="K18">
+        <v>26715</v>
+      </c>
+      <c r="L18" t="s">
+        <v>281</v>
+      </c>
+      <c r="M18" t="s">
+        <v>282</v>
+      </c>
+      <c r="N18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0.53</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="K19">
+        <v>3437</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19">
         <v>2</v>
       </c>
-      <c r="I18">
-        <v>0.1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="K18">
-        <v>21137</v>
-      </c>
-      <c r="L18" t="s">
-        <v>106</v>
-      </c>
-      <c r="M18" t="s">
-        <v>399</v>
-      </c>
-      <c r="N18" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>489</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>490</v>
-      </c>
-      <c r="D19" t="s">
-        <v>491</v>
-      </c>
-      <c r="E19" t="s">
-        <v>329</v>
-      </c>
-      <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" t="s">
+        <v>284</v>
+      </c>
+      <c r="D20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20" t="s">
+        <v>286</v>
+      </c>
+      <c r="F20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20">
         <v>3</v>
       </c>
-      <c r="I19">
-        <v>1.06</v>
-      </c>
-      <c r="J19" s="1">
-        <v>3.18</v>
-      </c>
-      <c r="K19">
-        <v>189701</v>
-      </c>
-      <c r="L19" t="s">
-        <v>95</v>
-      </c>
-      <c r="M19" t="s">
-        <v>492</v>
-      </c>
-      <c r="N19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>330</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>331</v>
-      </c>
-      <c r="D20" t="s">
-        <v>332</v>
-      </c>
-      <c r="E20" t="s">
-        <v>333</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
       <c r="I20">
-        <v>1.1599999999999999</v>
+        <v>8.19</v>
       </c>
       <c r="J20" s="1">
-        <v>5.8</v>
+        <v>24.57</v>
       </c>
       <c r="K20">
-        <v>135781</v>
+        <v>111</v>
       </c>
       <c r="L20" t="s">
         <v>71</v>
       </c>
       <c r="M20" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="N20" t="s">
         <v>22</v>
@@ -3234,21 +3222,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>606</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>607</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>608</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>476</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
@@ -3260,98 +3248,104 @@
         <v>3</v>
       </c>
       <c r="I21">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="J21" s="1">
-        <v>0.54</v>
+        <v>0.3</v>
       </c>
       <c r="K21">
-        <v>115389</v>
+        <v>1318</v>
       </c>
       <c r="L21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" t="s">
+        <v>83</v>
+      </c>
+      <c r="N21" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>288</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22">
+        <v>0.47</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="K22">
+        <v>5202</v>
+      </c>
+      <c r="L22" t="s">
         <v>58</v>
       </c>
-      <c r="M21" t="s">
-        <v>609</v>
-      </c>
-      <c r="N21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="M22" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>405</v>
-      </c>
-      <c r="B22" t="s">
-        <v>370</v>
-      </c>
-      <c r="C22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D22" t="s">
-        <v>407</v>
-      </c>
-      <c r="E22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22">
-        <v>6</v>
-      </c>
-      <c r="I22">
-        <v>0.22</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1.32</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>171</v>
-      </c>
-      <c r="M22" t="s">
-        <v>409</v>
-      </c>
-      <c r="N22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" t="s">
-        <v>30</v>
-      </c>
-      <c r="P22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>289</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>290</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>291</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
         <v>20</v>
@@ -3360,19 +3354,19 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.91</v>
+        <v>3.07</v>
       </c>
       <c r="J23" s="1">
-        <v>0.91</v>
+        <v>3.07</v>
       </c>
       <c r="K23">
-        <v>786</v>
+        <v>6950</v>
       </c>
       <c r="L23" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M23" t="s">
-        <v>59</v>
+        <v>292</v>
       </c>
       <c r="N23" t="s">
         <v>22</v>
@@ -3384,21 +3378,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>293</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>294</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>295</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>296</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>297</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
@@ -3407,22 +3401,22 @@
         <v>20</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0.17699999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="J24" s="1">
-        <v>2.83</v>
+        <v>0.1</v>
       </c>
       <c r="K24">
-        <v>5409</v>
+        <v>17890</v>
       </c>
       <c r="L24" t="s">
         <v>23</v>
       </c>
       <c r="M24" t="s">
-        <v>36</v>
+        <v>298</v>
       </c>
       <c r="N24" t="s">
         <v>22</v>
@@ -3431,24 +3425,24 @@
         <v>30</v>
       </c>
       <c r="P24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>261</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>262</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>263</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>264</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
@@ -3457,222 +3451,231 @@
         <v>20</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25">
+        <v>0.31</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="K25">
+        <v>49880</v>
+      </c>
+      <c r="L25" t="s">
+        <v>95</v>
+      </c>
+      <c r="M25" t="s">
+        <v>96</v>
+      </c>
+      <c r="N25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>300</v>
+      </c>
+      <c r="B26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" t="s">
+        <v>303</v>
+      </c>
+      <c r="E26" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1.58</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="K26">
+        <v>178</v>
+      </c>
+      <c r="L26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M26" t="s">
+        <v>304</v>
+      </c>
+      <c r="N26" t="s">
+        <v>260</v>
+      </c>
+      <c r="O26" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
         <v>0.95</v>
       </c>
-      <c r="J25" s="1">
-        <v>2.85</v>
-      </c>
-      <c r="K25">
-        <v>4719</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="J27" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="K27">
+        <v>6662</v>
+      </c>
+      <c r="L27" t="s">
         <v>28</v>
       </c>
-      <c r="M25" t="s">
-        <v>265</v>
-      </c>
-      <c r="N25" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" t="s">
-        <v>30</v>
-      </c>
-      <c r="P25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>352</v>
-      </c>
-      <c r="B26" t="s">
-        <v>353</v>
-      </c>
-      <c r="C26" t="s">
-        <v>354</v>
-      </c>
-      <c r="D26" t="s">
-        <v>355</v>
-      </c>
-      <c r="E26" t="s">
-        <v>356</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="M27" t="s">
+        <v>100</v>
+      </c>
+      <c r="N27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>0.1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K28">
+        <v>10759239</v>
+      </c>
+      <c r="L28" t="s">
+        <v>106</v>
+      </c>
+      <c r="M28" t="s">
+        <v>107</v>
+      </c>
+      <c r="N28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>305</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>306</v>
+      </c>
+      <c r="D29" t="s">
+        <v>307</v>
+      </c>
+      <c r="E29" t="s">
+        <v>308</v>
+      </c>
+      <c r="F29" t="s">
         <v>119</v>
       </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26">
-        <v>4</v>
-      </c>
-      <c r="I26">
-        <v>0.42</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1.68</v>
-      </c>
-      <c r="K26">
-        <v>4271</v>
-      </c>
-      <c r="L26" t="s">
-        <v>357</v>
-      </c>
-      <c r="M26" t="s">
-        <v>358</v>
-      </c>
-      <c r="N26" t="s">
-        <v>22</v>
-      </c>
-      <c r="O26" t="s">
-        <v>30</v>
-      </c>
-      <c r="P26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>524</v>
-      </c>
-      <c r="B27" t="s">
-        <v>525</v>
-      </c>
-      <c r="C27" t="s">
-        <v>526</v>
-      </c>
-      <c r="D27" t="s">
-        <v>613</v>
-      </c>
-      <c r="E27" t="s">
-        <v>186</v>
-      </c>
-      <c r="F27" t="s">
-        <v>362</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27">
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29">
         <v>2</v>
       </c>
-      <c r="I27">
-        <v>1.28</v>
-      </c>
-      <c r="J27" s="1">
-        <v>2.56</v>
-      </c>
-      <c r="K27">
-        <v>1702</v>
-      </c>
-      <c r="L27" t="s">
-        <v>71</v>
-      </c>
-      <c r="M27" t="s">
-        <v>527</v>
-      </c>
-      <c r="N27" t="s">
-        <v>22</v>
-      </c>
-      <c r="O27" t="s">
-        <v>30</v>
-      </c>
-      <c r="P27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>22232031</v>
-      </c>
-      <c r="B28" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" t="s">
-        <v>195</v>
-      </c>
-      <c r="D28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E28" t="s">
-        <v>197</v>
-      </c>
-      <c r="F28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>0.24</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="K28">
-        <v>33319</v>
-      </c>
-      <c r="L28" t="s">
-        <v>198</v>
-      </c>
-      <c r="M28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" t="s">
-        <v>30</v>
-      </c>
-      <c r="P28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>39293046</v>
-      </c>
-      <c r="B29" t="s">
-        <v>183</v>
-      </c>
-      <c r="C29" t="s">
-        <v>568</v>
-      </c>
-      <c r="D29" t="s">
-        <v>569</v>
-      </c>
-      <c r="E29" t="s">
-        <v>361</v>
-      </c>
-      <c r="F29" t="s">
-        <v>362</v>
-      </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
       <c r="I29">
-        <v>0.7</v>
+        <v>2.86</v>
       </c>
       <c r="J29" s="1">
-        <v>0.7</v>
+        <v>5.72</v>
       </c>
       <c r="K29">
-        <v>4999</v>
+        <v>168</v>
       </c>
       <c r="L29" t="s">
         <v>21</v>
       </c>
       <c r="M29" t="s">
-        <v>570</v>
+        <v>309</v>
       </c>
       <c r="N29" t="s">
         <v>22</v>
@@ -3684,45 +3687,45 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>734151471</v>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>310</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
+        <v>311</v>
       </c>
       <c r="C30" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="D30" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="E30" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="F30" t="s">
-        <v>362</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
         <v>20</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>2.83</v>
+        <v>0.17</v>
       </c>
       <c r="J30" s="1">
-        <v>16.98</v>
+        <v>0.34</v>
       </c>
       <c r="K30">
-        <v>9850</v>
+        <v>68109</v>
       </c>
       <c r="L30" t="s">
-        <v>95</v>
+        <v>315</v>
       </c>
       <c r="M30" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="N30" t="s">
         <v>22</v>
@@ -3734,24 +3737,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>301</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>302</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>317</v>
       </c>
       <c r="F31" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
         <v>20</v>
@@ -3760,122 +3763,125 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>1.58</v>
+        <v>0.87</v>
       </c>
       <c r="J31" s="1">
-        <v>1.58</v>
+        <v>0.87</v>
       </c>
       <c r="K31">
-        <v>178</v>
+        <v>10000</v>
       </c>
       <c r="L31" t="s">
         <v>71</v>
       </c>
       <c r="M31" t="s">
-        <v>304</v>
+        <v>113</v>
       </c>
       <c r="N31" t="s">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="O31" t="s">
         <v>30</v>
       </c>
       <c r="P31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>463</v>
+        <v>318</v>
       </c>
       <c r="B32" t="s">
-        <v>458</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>464</v>
+        <v>319</v>
       </c>
       <c r="D32" t="s">
-        <v>465</v>
+        <v>320</v>
       </c>
       <c r="E32" t="s">
-        <v>466</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
         <v>20</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>1.08</v>
+        <v>0.64</v>
       </c>
       <c r="J32" s="1">
-        <v>5.4</v>
+        <v>1.28</v>
       </c>
       <c r="K32">
-        <v>1574</v>
+        <v>2824</v>
       </c>
       <c r="L32" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="M32" t="s">
-        <v>467</v>
+        <v>321</v>
       </c>
       <c r="N32" t="s">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="O32" t="s">
         <v>30</v>
       </c>
       <c r="P32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>457</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s">
-        <v>458</v>
+        <v>323</v>
       </c>
       <c r="C33" t="s">
-        <v>459</v>
+        <v>324</v>
       </c>
       <c r="D33" t="s">
-        <v>460</v>
+        <v>325</v>
       </c>
       <c r="E33" t="s">
-        <v>461</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
         <v>20</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I33">
-        <v>7.04</v>
+        <v>0.09</v>
       </c>
       <c r="J33" s="1">
-        <v>14.08</v>
+        <v>1.17</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>23989</v>
       </c>
       <c r="L33" t="s">
-        <v>95</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s">
-        <v>462</v>
+        <v>326</v>
       </c>
       <c r="N33" t="s">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="O33" t="s">
         <v>30</v>
@@ -3884,24 +3890,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>564</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>525</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>565</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>566</v>
+        <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="G34" t="s">
         <v>20</v>
@@ -3910,19 +3916,19 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>2.39</v>
+        <v>0.66</v>
       </c>
       <c r="J34" s="1">
-        <v>2.39</v>
+        <v>0.66</v>
       </c>
       <c r="K34">
-        <v>1285</v>
+        <v>546</v>
       </c>
       <c r="L34" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="M34" t="s">
-        <v>567</v>
+        <v>120</v>
       </c>
       <c r="N34" t="s">
         <v>22</v>
@@ -3933,25 +3939,28 @@
       <c r="P34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>39012040</v>
+      <c r="R34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>121</v>
       </c>
       <c r="B35" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>571</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
-        <v>572</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
-        <v>361</v>
+        <v>125</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
         <v>20</v>
@@ -3960,472 +3969,478 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>0.31</v>
+        <v>0.45</v>
       </c>
       <c r="J35" s="1">
-        <v>0.31</v>
+        <v>0.45</v>
       </c>
       <c r="K35">
-        <v>118279</v>
+        <v>6056</v>
       </c>
       <c r="L35" t="s">
+        <v>126</v>
+      </c>
+      <c r="M35" t="s">
+        <v>127</v>
+      </c>
+      <c r="N35" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" t="s">
+        <v>30</v>
+      </c>
+      <c r="P35" t="s">
+        <v>31</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" t="s">
+        <v>329</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36">
+        <v>52</v>
+      </c>
+      <c r="I36">
+        <v>0.03</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="K36">
+        <v>517285</v>
+      </c>
+      <c r="L36" t="s">
+        <v>132</v>
+      </c>
+      <c r="M36" t="s">
+        <v>133</v>
+      </c>
+      <c r="N36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" t="s">
+        <v>31</v>
+      </c>
+      <c r="R36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>330</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>331</v>
+      </c>
+      <c r="D37" t="s">
+        <v>332</v>
+      </c>
+      <c r="E37" t="s">
+        <v>333</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J37" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="K37">
+        <v>135781</v>
+      </c>
+      <c r="L37" t="s">
+        <v>71</v>
+      </c>
+      <c r="M37" t="s">
+        <v>334</v>
+      </c>
+      <c r="N37" t="s">
+        <v>22</v>
+      </c>
+      <c r="O37" t="s">
+        <v>30</v>
+      </c>
+      <c r="P37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>335</v>
+      </c>
+      <c r="B38" t="s">
+        <v>336</v>
+      </c>
+      <c r="C38" t="s">
+        <v>337</v>
+      </c>
+      <c r="D38" t="s">
+        <v>338</v>
+      </c>
+      <c r="E38" t="s">
+        <v>339</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <v>0.24</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="K38">
+        <v>2215457</v>
+      </c>
+      <c r="L38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" t="s">
+        <v>340</v>
+      </c>
+      <c r="N38" t="s">
+        <v>22</v>
+      </c>
+      <c r="O38" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" t="s">
+        <v>249</v>
+      </c>
+      <c r="D39" t="s">
+        <v>250</v>
+      </c>
+      <c r="E39" t="s">
+        <v>251</v>
+      </c>
+      <c r="F39" t="s">
+        <v>119</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>24.1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>72.3</v>
+      </c>
+      <c r="K39">
+        <v>79</v>
+      </c>
+      <c r="L39" t="s">
+        <v>171</v>
+      </c>
+      <c r="M39" t="s">
+        <v>252</v>
+      </c>
+      <c r="N39" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" t="s">
+        <v>30</v>
+      </c>
+      <c r="P39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>341</v>
+      </c>
+      <c r="B40" t="s">
+        <v>342</v>
+      </c>
+      <c r="C40" t="s">
+        <v>343</v>
+      </c>
+      <c r="D40" t="s">
+        <v>344</v>
+      </c>
+      <c r="E40" t="s">
+        <v>345</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40">
+        <v>13</v>
+      </c>
+      <c r="I40">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="J40" s="1">
+        <v>6.42</v>
+      </c>
+      <c r="K40">
+        <v>7665</v>
+      </c>
+      <c r="L40" t="s">
         <v>58</v>
       </c>
-      <c r="M35" t="s">
-        <v>573</v>
-      </c>
-      <c r="N35" t="s">
-        <v>22</v>
-      </c>
-      <c r="O35" t="s">
-        <v>30</v>
-      </c>
-      <c r="P35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>733910060</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="M40" t="s">
+        <v>346</v>
+      </c>
+      <c r="N40" t="s">
+        <v>260</v>
+      </c>
+      <c r="O40" t="s">
+        <v>30</v>
+      </c>
+      <c r="P40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>347</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>348</v>
+      </c>
+      <c r="D41" t="s">
+        <v>349</v>
+      </c>
+      <c r="E41" t="s">
+        <v>350</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K41">
+        <v>4383</v>
+      </c>
+      <c r="L41" t="s">
+        <v>71</v>
+      </c>
+      <c r="M41" t="s">
+        <v>351</v>
+      </c>
+      <c r="N41" t="s">
+        <v>22</v>
+      </c>
+      <c r="O41" t="s">
+        <v>30</v>
+      </c>
+      <c r="P41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>352</v>
+      </c>
+      <c r="B42" t="s">
+        <v>353</v>
+      </c>
+      <c r="C42" t="s">
+        <v>354</v>
+      </c>
+      <c r="D42" t="s">
+        <v>355</v>
+      </c>
+      <c r="E42" t="s">
+        <v>356</v>
+      </c>
+      <c r="F42" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>0.42</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="K42">
+        <v>4271</v>
+      </c>
+      <c r="L42" t="s">
+        <v>357</v>
+      </c>
+      <c r="M42" t="s">
+        <v>358</v>
+      </c>
+      <c r="N42" t="s">
+        <v>22</v>
+      </c>
+      <c r="O42" t="s">
+        <v>30</v>
+      </c>
+      <c r="P42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0.5</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K43">
+        <v>7627</v>
+      </c>
+      <c r="L43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" t="s">
+        <v>138</v>
+      </c>
+      <c r="N43" t="s">
+        <v>22</v>
+      </c>
+      <c r="O43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P43" t="s">
+        <v>31</v>
+      </c>
+      <c r="R43">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>734151471</v>
+      </c>
+      <c r="B44" t="s">
         <v>183</v>
       </c>
-      <c r="C36" t="s">
-        <v>184</v>
-      </c>
-      <c r="D36" t="s">
-        <v>185</v>
-      </c>
-      <c r="E36" t="s">
-        <v>186</v>
-      </c>
-      <c r="F36" t="s">
-        <v>187</v>
-      </c>
-      <c r="G36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36">
-        <v>4</v>
-      </c>
-      <c r="I36">
-        <v>3.14</v>
-      </c>
-      <c r="J36" s="1">
-        <v>12.56</v>
-      </c>
-      <c r="K36">
-        <v>5606</v>
-      </c>
-      <c r="L36" t="s">
-        <v>64</v>
-      </c>
-      <c r="M36" t="s">
-        <v>188</v>
-      </c>
-      <c r="N36" t="s">
-        <v>22</v>
-      </c>
-      <c r="O36" t="s">
-        <v>30</v>
-      </c>
-      <c r="P36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>39000038</v>
-      </c>
-      <c r="B37" t="s">
-        <v>183</v>
-      </c>
-      <c r="C37" t="s">
-        <v>574</v>
-      </c>
-      <c r="D37" t="s">
-        <v>575</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="C44" t="s">
+        <v>359</v>
+      </c>
+      <c r="D44" t="s">
+        <v>360</v>
+      </c>
+      <c r="E44" t="s">
         <v>361</v>
       </c>
-      <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37">
-        <v>4</v>
-      </c>
-      <c r="I37">
-        <v>0.1</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="K37">
-        <v>841804</v>
-      </c>
-      <c r="L37" t="s">
-        <v>576</v>
-      </c>
-      <c r="M37" t="s">
-        <v>577</v>
-      </c>
-      <c r="N37" t="s">
-        <v>22</v>
-      </c>
-      <c r="O37" t="s">
-        <v>30</v>
-      </c>
-      <c r="P37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>536</v>
-      </c>
-      <c r="B38" t="s">
-        <v>537</v>
-      </c>
-      <c r="C38" t="s">
-        <v>538</v>
-      </c>
-      <c r="D38" t="s">
-        <v>539</v>
-      </c>
-      <c r="E38" t="s">
-        <v>540</v>
-      </c>
-      <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38">
-        <v>3</v>
-      </c>
-      <c r="I38">
-        <v>9.27</v>
-      </c>
-      <c r="J38" s="1">
-        <v>27.81</v>
-      </c>
-      <c r="K38">
-        <v>4355</v>
-      </c>
-      <c r="L38" t="s">
-        <v>315</v>
-      </c>
-      <c r="M38" t="s">
-        <v>541</v>
-      </c>
-      <c r="N38" t="s">
-        <v>260</v>
-      </c>
-      <c r="O38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>390</v>
-      </c>
-      <c r="B39" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" t="s">
-        <v>391</v>
-      </c>
-      <c r="D39" t="s">
-        <v>392</v>
-      </c>
-      <c r="E39" t="s">
-        <v>393</v>
-      </c>
-      <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39">
-        <v>33</v>
-      </c>
-      <c r="I39">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="J39" s="1">
-        <v>5.37</v>
-      </c>
-      <c r="K39">
-        <v>29834</v>
-      </c>
-      <c r="L39" t="s">
-        <v>126</v>
-      </c>
-      <c r="M39" t="s">
-        <v>394</v>
-      </c>
-      <c r="N39" t="s">
-        <v>22</v>
-      </c>
-      <c r="O39" t="s">
-        <v>30</v>
-      </c>
-      <c r="P39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>189</v>
-      </c>
-      <c r="B40" t="s">
-        <v>190</v>
-      </c>
-      <c r="C40" t="s">
-        <v>191</v>
-      </c>
-      <c r="D40" t="s">
-        <v>192</v>
-      </c>
-      <c r="E40" t="s">
-        <v>193</v>
-      </c>
-      <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40">
-        <v>8</v>
-      </c>
-      <c r="I40">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J40" s="1">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="K40">
-        <v>775938</v>
-      </c>
-      <c r="L40" t="s">
-        <v>147</v>
-      </c>
-      <c r="M40" t="s">
-        <v>194</v>
-      </c>
-      <c r="N40" t="s">
-        <v>22</v>
-      </c>
-      <c r="O40" t="s">
-        <v>30</v>
-      </c>
-      <c r="P40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>74279220181</v>
-      </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" t="s">
-        <v>496</v>
-      </c>
-      <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41">
+      <c r="F44" t="s">
+        <v>362</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44">
         <v>6</v>
       </c>
-      <c r="I41">
-        <v>0.32</v>
-      </c>
-      <c r="J41" s="1">
-        <v>1.92</v>
-      </c>
-      <c r="K41">
-        <v>4667</v>
-      </c>
-      <c r="L41" t="s">
-        <v>64</v>
-      </c>
-      <c r="M41" t="s">
-        <v>65</v>
-      </c>
-      <c r="N41" t="s">
-        <v>22</v>
-      </c>
-      <c r="O41" t="s">
-        <v>30</v>
-      </c>
-      <c r="P41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>254</v>
-      </c>
-      <c r="B42" t="s">
-        <v>255</v>
-      </c>
-      <c r="C42" t="s">
-        <v>256</v>
-      </c>
-      <c r="D42" t="s">
-        <v>257</v>
-      </c>
-      <c r="E42" t="s">
-        <v>258</v>
-      </c>
-      <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42">
-        <v>8</v>
-      </c>
-      <c r="I42">
-        <v>0.18</v>
-      </c>
-      <c r="J42" s="1">
-        <v>1.44</v>
-      </c>
-      <c r="K42">
-        <v>337475</v>
-      </c>
-      <c r="L42" t="s">
-        <v>71</v>
-      </c>
-      <c r="M42" t="s">
-        <v>259</v>
-      </c>
-      <c r="N42" t="s">
-        <v>260</v>
-      </c>
-      <c r="O42" t="s">
-        <v>30</v>
-      </c>
-      <c r="P42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>322</v>
-      </c>
-      <c r="B43" t="s">
-        <v>323</v>
-      </c>
-      <c r="C43" t="s">
-        <v>324</v>
-      </c>
-      <c r="D43" t="s">
-        <v>325</v>
-      </c>
-      <c r="E43" t="s">
-        <v>63</v>
-      </c>
-      <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43">
-        <v>13</v>
-      </c>
-      <c r="I43">
-        <v>0.09</v>
-      </c>
-      <c r="J43" s="1">
-        <v>1.17</v>
-      </c>
-      <c r="K43">
-        <v>23989</v>
-      </c>
-      <c r="L43" t="s">
-        <v>315</v>
-      </c>
-      <c r="M43" t="s">
-        <v>326</v>
-      </c>
-      <c r="N43" t="s">
-        <v>22</v>
-      </c>
-      <c r="O43" t="s">
-        <v>30</v>
-      </c>
-      <c r="P43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>493</v>
-      </c>
-      <c r="B44" t="s">
-        <v>255</v>
-      </c>
-      <c r="C44" t="s">
-        <v>494</v>
-      </c>
-      <c r="D44" t="s">
-        <v>495</v>
-      </c>
-      <c r="E44" t="s">
-        <v>496</v>
-      </c>
-      <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
       <c r="I44">
-        <v>0.81</v>
+        <v>2.83</v>
       </c>
       <c r="J44" s="1">
-        <v>0.81</v>
+        <v>16.98</v>
       </c>
       <c r="K44">
-        <v>7663</v>
+        <v>9850</v>
       </c>
       <c r="L44" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="M44" t="s">
-        <v>497</v>
+        <v>363</v>
       </c>
       <c r="N44" t="s">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="O44" t="s">
         <v>30</v>
@@ -4434,21 +4449,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>546</v>
+        <v>364</v>
       </c>
       <c r="B45" t="s">
-        <v>323</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>547</v>
+        <v>365</v>
       </c>
       <c r="D45" t="s">
-        <v>548</v>
+        <v>366</v>
       </c>
       <c r="E45" t="s">
-        <v>549</v>
+        <v>367</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
@@ -4457,22 +4472,22 @@
         <v>20</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I45">
-        <v>0.51</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="J45" s="1">
-        <v>2.04</v>
+        <v>1.59</v>
       </c>
       <c r="K45">
-        <v>260340</v>
+        <v>85601</v>
       </c>
       <c r="L45" t="s">
-        <v>315</v>
+        <v>58</v>
       </c>
       <c r="M45" t="s">
-        <v>550</v>
+        <v>368</v>
       </c>
       <c r="N45" t="s">
         <v>22</v>
@@ -4484,45 +4499,45 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>31.8201</v>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>369</v>
       </c>
       <c r="B46" t="s">
-        <v>579</v>
+        <v>370</v>
       </c>
       <c r="C46" t="s">
-        <v>580</v>
+        <v>371</v>
       </c>
       <c r="D46" t="s">
-        <v>581</v>
+        <v>372</v>
       </c>
       <c r="E46" t="s">
-        <v>582</v>
+        <v>373</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
         <v>20</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>0.91</v>
+        <v>0.34</v>
       </c>
       <c r="J46" s="1">
-        <v>0.91</v>
+        <v>1.02</v>
       </c>
       <c r="K46">
-        <v>44185</v>
+        <v>91338</v>
       </c>
       <c r="L46" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="M46" t="s">
-        <v>583</v>
+        <v>374</v>
       </c>
       <c r="N46" t="s">
         <v>22</v>
@@ -4534,24 +4549,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>584</v>
+        <v>375</v>
       </c>
       <c r="B47" t="s">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>585</v>
+        <v>376</v>
       </c>
       <c r="D47" t="s">
-        <v>586</v>
+        <v>377</v>
       </c>
       <c r="E47" t="s">
-        <v>582</v>
+        <v>76</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
         <v>20</v>
@@ -4560,19 +4575,19 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <v>0.43</v>
+        <v>1.62</v>
       </c>
       <c r="J47" s="1">
-        <v>0.43</v>
+        <v>1.62</v>
       </c>
       <c r="K47">
-        <v>2606</v>
+        <v>3519</v>
       </c>
       <c r="L47" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="M47" t="s">
-        <v>587</v>
+        <v>378</v>
       </c>
       <c r="N47" t="s">
         <v>22</v>
@@ -4581,142 +4596,154 @@
         <v>30</v>
       </c>
       <c r="P47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>267</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>268</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>269</v>
+        <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>270</v>
+        <v>142</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="G48" t="s">
         <v>20</v>
       </c>
       <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>3.05</v>
+      </c>
+      <c r="J48" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="K48">
+        <v>534</v>
+      </c>
+      <c r="L48" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" t="s">
+        <v>143</v>
+      </c>
+      <c r="N48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O48" t="s">
+        <v>30</v>
+      </c>
+      <c r="P48" t="s">
+        <v>31</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>824500500</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>0.27</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="K49">
+        <v>184</v>
+      </c>
+      <c r="L49" t="s">
+        <v>147</v>
+      </c>
+      <c r="M49" t="s">
+        <v>148</v>
+      </c>
+      <c r="N49" t="s">
+        <v>22</v>
+      </c>
+      <c r="O49" t="s">
+        <v>30</v>
+      </c>
+      <c r="P49" t="s">
+        <v>31</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>379</v>
+      </c>
+      <c r="B50" t="s">
+        <v>380</v>
+      </c>
+      <c r="C50" t="s">
+        <v>381</v>
+      </c>
+      <c r="D50" t="s">
+        <v>382</v>
+      </c>
+      <c r="E50" t="s">
+        <v>383</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50">
         <v>3</v>
       </c>
-      <c r="I48">
-        <v>1.92</v>
-      </c>
-      <c r="J48" s="1">
-        <v>5.76</v>
-      </c>
-      <c r="K48">
-        <v>986</v>
-      </c>
-      <c r="L48" t="s">
-        <v>71</v>
-      </c>
-      <c r="M48" t="s">
-        <v>271</v>
-      </c>
-      <c r="N48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O48" t="s">
-        <v>30</v>
-      </c>
-      <c r="P48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>532</v>
-      </c>
-      <c r="B49" t="s">
-        <v>533</v>
-      </c>
-      <c r="C49" t="s">
-        <v>534</v>
-      </c>
-      <c r="D49" t="s">
-        <v>616</v>
-      </c>
-      <c r="F49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49">
-        <v>4</v>
-      </c>
-      <c r="I49">
-        <v>0.48</v>
-      </c>
-      <c r="J49" s="1">
-        <v>1.92</v>
-      </c>
-      <c r="K49">
-        <v>4315</v>
-      </c>
-      <c r="L49" t="s">
-        <v>71</v>
-      </c>
-      <c r="M49" t="s">
-        <v>535</v>
-      </c>
-      <c r="N49" t="s">
-        <v>22</v>
-      </c>
-      <c r="O49" t="s">
-        <v>30</v>
-      </c>
-      <c r="P49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>528</v>
-      </c>
-      <c r="B50" t="s">
-        <v>529</v>
-      </c>
-      <c r="C50" t="s">
-        <v>530</v>
-      </c>
-      <c r="D50" t="s">
-        <v>615</v>
-      </c>
-      <c r="F50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50">
-        <v>4</v>
-      </c>
       <c r="I50">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="J50" s="1">
-        <v>1.36</v>
+        <v>1.05</v>
       </c>
       <c r="K50">
-        <v>3694</v>
+        <v>597</v>
       </c>
       <c r="L50" t="s">
-        <v>480</v>
+        <v>154</v>
       </c>
       <c r="M50" t="s">
-        <v>531</v>
+        <v>384</v>
       </c>
       <c r="N50" t="s">
         <v>22</v>
@@ -4728,24 +4755,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>247</v>
+        <v>385</v>
       </c>
       <c r="B51" t="s">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>249</v>
+        <v>386</v>
       </c>
       <c r="D51" t="s">
-        <v>250</v>
+        <v>387</v>
       </c>
       <c r="E51" t="s">
-        <v>251</v>
+        <v>388</v>
       </c>
       <c r="F51" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
         <v>20</v>
@@ -4754,219 +4781,219 @@
         <v>3</v>
       </c>
       <c r="I51">
-        <v>24.1</v>
+        <v>6.97</v>
       </c>
       <c r="J51" s="1">
-        <v>72.3</v>
+        <v>20.91</v>
       </c>
       <c r="K51">
-        <v>79</v>
+        <v>1576</v>
       </c>
       <c r="L51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" t="s">
+        <v>389</v>
+      </c>
+      <c r="N51" t="s">
+        <v>22</v>
+      </c>
+      <c r="O51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>390</v>
+      </c>
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" t="s">
+        <v>391</v>
+      </c>
+      <c r="D52" t="s">
+        <v>392</v>
+      </c>
+      <c r="E52" t="s">
+        <v>393</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52">
+        <v>33</v>
+      </c>
+      <c r="I52">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="J52" s="1">
+        <v>5.37</v>
+      </c>
+      <c r="K52">
+        <v>29834</v>
+      </c>
+      <c r="L52" t="s">
+        <v>126</v>
+      </c>
+      <c r="M52" t="s">
+        <v>394</v>
+      </c>
+      <c r="N52" t="s">
+        <v>22</v>
+      </c>
+      <c r="O52" t="s">
+        <v>30</v>
+      </c>
+      <c r="P52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>395</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>396</v>
+      </c>
+      <c r="D53" t="s">
+        <v>397</v>
+      </c>
+      <c r="E53" t="s">
+        <v>398</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>0.1</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K53">
+        <v>21137</v>
+      </c>
+      <c r="L53" t="s">
+        <v>106</v>
+      </c>
+      <c r="M53" t="s">
+        <v>399</v>
+      </c>
+      <c r="N53" t="s">
+        <v>22</v>
+      </c>
+      <c r="O53" t="s">
+        <v>30</v>
+      </c>
+      <c r="P53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>400</v>
+      </c>
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D54" t="s">
+        <v>402</v>
+      </c>
+      <c r="E54" t="s">
+        <v>403</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>0.4</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K54">
+        <v>16463</v>
+      </c>
+      <c r="L54" t="s">
+        <v>106</v>
+      </c>
+      <c r="M54" t="s">
+        <v>404</v>
+      </c>
+      <c r="N54" t="s">
+        <v>22</v>
+      </c>
+      <c r="O54" t="s">
+        <v>30</v>
+      </c>
+      <c r="P54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>405</v>
+      </c>
+      <c r="B55" t="s">
+        <v>370</v>
+      </c>
+      <c r="C55" t="s">
+        <v>406</v>
+      </c>
+      <c r="D55" t="s">
+        <v>407</v>
+      </c>
+      <c r="E55" t="s">
+        <v>408</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55">
+        <v>6</v>
+      </c>
+      <c r="I55">
+        <v>0.22</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55" t="s">
         <v>171</v>
       </c>
-      <c r="M51" t="s">
-        <v>252</v>
-      </c>
-      <c r="N51" t="s">
-        <v>22</v>
-      </c>
-      <c r="O51" t="s">
-        <v>30</v>
-      </c>
-      <c r="P51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52">
-        <v>5</v>
-      </c>
-      <c r="I52">
-        <v>4.08</v>
-      </c>
-      <c r="J52" s="1">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="K52">
-        <v>4787</v>
-      </c>
-      <c r="L52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M52" t="s">
-        <v>29</v>
-      </c>
-      <c r="N52" t="s">
-        <v>22</v>
-      </c>
-      <c r="O52" t="s">
-        <v>30</v>
-      </c>
-      <c r="P52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>347</v>
-      </c>
-      <c r="B53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" t="s">
-        <v>348</v>
-      </c>
-      <c r="D53" t="s">
-        <v>349</v>
-      </c>
-      <c r="E53" t="s">
-        <v>350</v>
-      </c>
-      <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="J53" s="1">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="K53">
-        <v>4383</v>
-      </c>
-      <c r="L53" t="s">
-        <v>71</v>
-      </c>
-      <c r="M53" t="s">
-        <v>351</v>
-      </c>
-      <c r="N53" t="s">
-        <v>22</v>
-      </c>
-      <c r="O53" t="s">
-        <v>30</v>
-      </c>
-      <c r="P53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <v>0.53</v>
-      </c>
-      <c r="J54" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="K54">
-        <v>3437</v>
-      </c>
-      <c r="L54" t="s">
-        <v>21</v>
-      </c>
-      <c r="M54" t="s">
-        <v>77</v>
-      </c>
-      <c r="N54" t="s">
-        <v>22</v>
-      </c>
-      <c r="O54" t="s">
-        <v>30</v>
-      </c>
-      <c r="P54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>482</v>
-      </c>
-      <c r="B55" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" t="s">
-        <v>483</v>
-      </c>
-      <c r="D55" t="s">
-        <v>484</v>
-      </c>
-      <c r="E55" t="s">
-        <v>328</v>
-      </c>
-      <c r="F55" t="s">
-        <v>119</v>
-      </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>17.72</v>
-      </c>
-      <c r="J55" s="1">
-        <v>17.72</v>
-      </c>
-      <c r="K55">
-        <v>977</v>
-      </c>
-      <c r="L55" t="s">
-        <v>21</v>
-      </c>
       <c r="M55" t="s">
-        <v>485</v>
+        <v>409</v>
       </c>
       <c r="N55" t="s">
         <v>22</v>
@@ -4978,21 +5005,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>410</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>411</v>
       </c>
       <c r="D56" t="s">
-        <v>39</v>
+        <v>412</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>413</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
@@ -5001,22 +5028,22 @@
         <v>20</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I56">
-        <v>13.08</v>
+        <v>0.1</v>
       </c>
       <c r="J56" s="1">
-        <v>26.16</v>
+        <v>0.6</v>
       </c>
       <c r="K56">
-        <v>1099</v>
+        <v>25110</v>
       </c>
       <c r="L56" t="s">
-        <v>21</v>
+        <v>281</v>
       </c>
       <c r="M56" t="s">
-        <v>41</v>
+        <v>414</v>
       </c>
       <c r="N56" t="s">
         <v>22</v>
@@ -5028,21 +5055,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="D57" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="E57" t="s">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
@@ -5051,22 +5078,22 @@
         <v>20</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I57">
-        <v>1.62</v>
+        <v>0.26</v>
       </c>
       <c r="J57" s="1">
-        <v>1.62</v>
+        <v>5.2</v>
       </c>
       <c r="K57">
-        <v>3519</v>
+        <v>609132</v>
       </c>
       <c r="L57" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="M57" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="N57" t="s">
         <v>22</v>
@@ -5078,21 +5105,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>420</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>421</v>
       </c>
       <c r="D58" t="s">
-        <v>69</v>
+        <v>422</v>
       </c>
       <c r="E58" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
@@ -5104,419 +5131,419 @@
         <v>2</v>
       </c>
       <c r="I58">
-        <v>0.48</v>
+        <v>0.1</v>
       </c>
       <c r="J58" s="1">
-        <v>0.96</v>
+        <v>0.2</v>
       </c>
       <c r="K58">
-        <v>6638</v>
+        <v>5709</v>
       </c>
       <c r="L58" t="s">
+        <v>161</v>
+      </c>
+      <c r="M58" t="s">
+        <v>423</v>
+      </c>
+      <c r="N58" t="s">
+        <v>22</v>
+      </c>
+      <c r="O58" t="s">
+        <v>30</v>
+      </c>
+      <c r="P58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>254</v>
+      </c>
+      <c r="B59" t="s">
+        <v>255</v>
+      </c>
+      <c r="C59" t="s">
+        <v>256</v>
+      </c>
+      <c r="D59" t="s">
+        <v>257</v>
+      </c>
+      <c r="E59" t="s">
+        <v>258</v>
+      </c>
+      <c r="F59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59">
+        <v>8</v>
+      </c>
+      <c r="I59">
+        <v>0.18</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="K59">
+        <v>337475</v>
+      </c>
+      <c r="L59" t="s">
         <v>71</v>
       </c>
-      <c r="M58" t="s">
-        <v>72</v>
-      </c>
-      <c r="N58" t="s">
-        <v>22</v>
-      </c>
-      <c r="O58" t="s">
-        <v>30</v>
-      </c>
-      <c r="P58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>385</v>
-      </c>
-      <c r="B59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" t="s">
-        <v>386</v>
-      </c>
-      <c r="D59" t="s">
-        <v>387</v>
-      </c>
-      <c r="E59" t="s">
-        <v>388</v>
-      </c>
-      <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59">
+      <c r="M59" t="s">
+        <v>259</v>
+      </c>
+      <c r="N59" t="s">
+        <v>260</v>
+      </c>
+      <c r="O59" t="s">
+        <v>30</v>
+      </c>
+      <c r="P59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>424</v>
+      </c>
+      <c r="B60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" t="s">
+        <v>425</v>
+      </c>
+      <c r="D60" t="s">
+        <v>426</v>
+      </c>
+      <c r="E60" t="s">
+        <v>427</v>
+      </c>
+      <c r="F60" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
+        <v>0.1</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K60">
+        <v>4026</v>
+      </c>
+      <c r="L60" t="s">
+        <v>161</v>
+      </c>
+      <c r="M60" t="s">
+        <v>428</v>
+      </c>
+      <c r="N60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O60" t="s">
+        <v>30</v>
+      </c>
+      <c r="P60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>429</v>
+      </c>
+      <c r="B61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" t="s">
+        <v>430</v>
+      </c>
+      <c r="D61" t="s">
+        <v>431</v>
+      </c>
+      <c r="E61" t="s">
+        <v>432</v>
+      </c>
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61">
+        <v>6</v>
+      </c>
+      <c r="I61">
+        <v>0.31</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="K61">
+        <v>3810</v>
+      </c>
+      <c r="L61" t="s">
+        <v>95</v>
+      </c>
+      <c r="M61" t="s">
+        <v>433</v>
+      </c>
+      <c r="N61" t="s">
+        <v>22</v>
+      </c>
+      <c r="O61" t="s">
+        <v>30</v>
+      </c>
+      <c r="P61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>434</v>
+      </c>
+      <c r="B62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" t="s">
+        <v>435</v>
+      </c>
+      <c r="D62" t="s">
+        <v>152</v>
+      </c>
+      <c r="E62" t="s">
+        <v>436</v>
+      </c>
+      <c r="F62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62">
+        <v>8</v>
+      </c>
+      <c r="I62">
+        <v>0.1</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K62">
+        <v>621947</v>
+      </c>
+      <c r="L62" t="s">
+        <v>171</v>
+      </c>
+      <c r="M62" t="s">
+        <v>437</v>
+      </c>
+      <c r="N62" t="s">
+        <v>22</v>
+      </c>
+      <c r="O62" t="s">
+        <v>30</v>
+      </c>
+      <c r="P62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>438</v>
+      </c>
+      <c r="B63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" t="s">
+        <v>439</v>
+      </c>
+      <c r="D63" t="s">
+        <v>440</v>
+      </c>
+      <c r="E63" t="s">
+        <v>441</v>
+      </c>
+      <c r="F63" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63">
+        <v>8</v>
+      </c>
+      <c r="I63">
+        <v>0.1</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K63">
+        <v>27789</v>
+      </c>
+      <c r="L63" t="s">
+        <v>281</v>
+      </c>
+      <c r="M63" t="s">
+        <v>442</v>
+      </c>
+      <c r="N63" t="s">
+        <v>22</v>
+      </c>
+      <c r="O63" t="s">
+        <v>30</v>
+      </c>
+      <c r="P63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>443</v>
+      </c>
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" t="s">
+        <v>444</v>
+      </c>
+      <c r="D64" t="s">
+        <v>445</v>
+      </c>
+      <c r="E64" t="s">
+        <v>446</v>
+      </c>
+      <c r="F64" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64">
+        <v>12</v>
+      </c>
+      <c r="I64">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="K64">
+        <v>7272</v>
+      </c>
+      <c r="L64" t="s">
+        <v>281</v>
+      </c>
+      <c r="M64" t="s">
+        <v>447</v>
+      </c>
+      <c r="N64" t="s">
+        <v>22</v>
+      </c>
+      <c r="O64" t="s">
+        <v>30</v>
+      </c>
+      <c r="P64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" t="s">
+        <v>160</v>
+      </c>
+      <c r="F65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>0.1</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K65">
+        <v>54094</v>
+      </c>
+      <c r="L65" t="s">
+        <v>161</v>
+      </c>
+      <c r="M65" t="s">
+        <v>162</v>
+      </c>
+      <c r="N65" t="s">
+        <v>22</v>
+      </c>
+      <c r="O65" t="s">
+        <v>30</v>
+      </c>
+      <c r="P65" t="s">
+        <v>31</v>
+      </c>
+      <c r="R65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>226</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66" t="s">
+        <v>228</v>
+      </c>
+      <c r="F66" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66">
         <v>3</v>
       </c>
-      <c r="I59">
-        <v>6.97</v>
-      </c>
-      <c r="J59" s="1">
-        <v>20.91</v>
-      </c>
-      <c r="K59">
-        <v>1576</v>
-      </c>
-      <c r="L59" t="s">
-        <v>21</v>
-      </c>
-      <c r="M59" t="s">
-        <v>389</v>
-      </c>
-      <c r="N59" t="s">
-        <v>22</v>
-      </c>
-      <c r="O59" t="s">
-        <v>30</v>
-      </c>
-      <c r="P59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>289</v>
-      </c>
-      <c r="B60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" t="s">
-        <v>290</v>
-      </c>
-      <c r="D60" t="s">
-        <v>291</v>
-      </c>
-      <c r="E60" t="s">
-        <v>27</v>
-      </c>
-      <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>20</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <v>3.07</v>
-      </c>
-      <c r="J60" s="1">
-        <v>3.07</v>
-      </c>
-      <c r="K60">
-        <v>6950</v>
-      </c>
-      <c r="L60" t="s">
-        <v>64</v>
-      </c>
-      <c r="M60" t="s">
-        <v>292</v>
-      </c>
-      <c r="N60" t="s">
-        <v>22</v>
-      </c>
-      <c r="O60" t="s">
-        <v>30</v>
-      </c>
-      <c r="P60" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>473</v>
-      </c>
-      <c r="B61" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" t="s">
-        <v>474</v>
-      </c>
-      <c r="D61" t="s">
-        <v>475</v>
-      </c>
-      <c r="E61" t="s">
-        <v>76</v>
-      </c>
-      <c r="F61" t="s">
-        <v>119</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>3.08</v>
-      </c>
-      <c r="J61" s="1">
-        <v>3.08</v>
-      </c>
-      <c r="K61">
-        <v>1046</v>
-      </c>
-      <c r="L61" t="s">
-        <v>21</v>
-      </c>
-      <c r="M61" t="s">
-        <v>292</v>
-      </c>
-      <c r="N61" t="s">
-        <v>22</v>
-      </c>
-      <c r="O61" t="s">
-        <v>30</v>
-      </c>
-      <c r="P61" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>283</v>
-      </c>
-      <c r="B62" t="s">
-        <v>248</v>
-      </c>
-      <c r="C62" t="s">
-        <v>284</v>
-      </c>
-      <c r="D62" t="s">
-        <v>285</v>
-      </c>
-      <c r="E62" t="s">
-        <v>286</v>
-      </c>
-      <c r="F62" t="s">
-        <v>119</v>
-      </c>
-      <c r="G62" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62">
-        <v>3</v>
-      </c>
-      <c r="I62">
-        <v>8.19</v>
-      </c>
-      <c r="J62" s="1">
-        <v>24.57</v>
-      </c>
-      <c r="K62">
-        <v>111</v>
-      </c>
-      <c r="L62" t="s">
-        <v>71</v>
-      </c>
-      <c r="M62" t="s">
-        <v>287</v>
-      </c>
-      <c r="N62" t="s">
-        <v>22</v>
-      </c>
-      <c r="O62" t="s">
-        <v>30</v>
-      </c>
-      <c r="P62" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>618</v>
-      </c>
-      <c r="B63" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" t="s">
-        <v>617</v>
-      </c>
-      <c r="D63" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
-      <c r="H63">
-        <v>5</v>
-      </c>
-      <c r="I63">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="J63" s="1">
-        <v>21.55</v>
-      </c>
-      <c r="K63">
-        <v>2495</v>
-      </c>
-      <c r="L63" t="s">
-        <v>21</v>
-      </c>
-      <c r="M63" t="s">
-        <v>287</v>
-      </c>
-      <c r="N63" t="s">
-        <v>22</v>
-      </c>
-      <c r="O63" t="s">
-        <v>23</v>
-      </c>
-      <c r="P63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>305</v>
-      </c>
-      <c r="B64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" t="s">
-        <v>306</v>
-      </c>
-      <c r="D64" t="s">
-        <v>307</v>
-      </c>
-      <c r="E64" t="s">
-        <v>308</v>
-      </c>
-      <c r="F64" t="s">
-        <v>119</v>
-      </c>
-      <c r="G64" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64">
-        <v>2</v>
-      </c>
-      <c r="I64">
-        <v>2.86</v>
-      </c>
-      <c r="J64" s="1">
-        <v>5.72</v>
-      </c>
-      <c r="K64">
-        <v>168</v>
-      </c>
-      <c r="L64" t="s">
-        <v>21</v>
-      </c>
-      <c r="M64" t="s">
-        <v>309</v>
-      </c>
-      <c r="N64" t="s">
-        <v>22</v>
-      </c>
-      <c r="O64" t="s">
-        <v>30</v>
-      </c>
-      <c r="P64" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>139</v>
-      </c>
-      <c r="B65" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" t="s">
-        <v>141</v>
-      </c>
-      <c r="E65" t="s">
-        <v>142</v>
-      </c>
-      <c r="F65" t="s">
-        <v>119</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>3.05</v>
-      </c>
-      <c r="J65" s="1">
-        <v>3.05</v>
-      </c>
-      <c r="K65">
-        <v>534</v>
-      </c>
-      <c r="L65" t="s">
-        <v>21</v>
-      </c>
-      <c r="M65" t="s">
-        <v>143</v>
-      </c>
-      <c r="N65" t="s">
-        <v>22</v>
-      </c>
-      <c r="O65" t="s">
-        <v>30</v>
-      </c>
-      <c r="P65" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>114</v>
-      </c>
-      <c r="B66" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" t="s">
-        <v>116</v>
-      </c>
-      <c r="D66" t="s">
-        <v>117</v>
-      </c>
-      <c r="E66" t="s">
-        <v>118</v>
-      </c>
-      <c r="F66" t="s">
-        <v>119</v>
-      </c>
-      <c r="G66" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
       <c r="I66">
-        <v>0.66</v>
+        <v>0.31</v>
       </c>
       <c r="J66" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="K66">
-        <v>546</v>
+        <v>0.93</v>
+      </c>
+      <c r="K66" t="s">
+        <v>229</v>
       </c>
       <c r="L66" t="s">
         <v>95</v>
       </c>
       <c r="M66" t="s">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N66" t="s">
         <v>22</v>
@@ -5527,22 +5554,25 @@
       <c r="P66" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>448</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
-        <v>49</v>
+        <v>449</v>
       </c>
       <c r="D67" t="s">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E67" t="s">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
@@ -5551,22 +5581,22 @@
         <v>20</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>1.58</v>
+        <v>0.31</v>
       </c>
       <c r="J67" s="1">
-        <v>1.58</v>
+        <v>0.93</v>
       </c>
       <c r="K67">
-        <v>1713</v>
+        <v>5137</v>
       </c>
       <c r="L67" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="M67" t="s">
-        <v>52</v>
+        <v>452</v>
       </c>
       <c r="N67" t="s">
         <v>22</v>
@@ -5578,21 +5608,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="B68" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="D68" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="E68" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
@@ -5601,22 +5631,22 @@
         <v>20</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I68">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="J68" s="1">
-        <v>0.64</v>
+        <v>4.26</v>
       </c>
       <c r="K68">
-        <v>2266</v>
+        <v>9451</v>
       </c>
       <c r="L68" t="s">
-        <v>480</v>
+        <v>315</v>
       </c>
       <c r="M68" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="N68" t="s">
         <v>22</v>
@@ -5628,274 +5658,280 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>486</v>
+        <v>261</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>487</v>
+        <v>262</v>
       </c>
       <c r="D69" t="s">
-        <v>611</v>
+        <v>263</v>
       </c>
       <c r="E69" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="F69" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <v>0.95</v>
+      </c>
+      <c r="J69" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="K69">
+        <v>4719</v>
+      </c>
+      <c r="L69" t="s">
+        <v>28</v>
+      </c>
+      <c r="M69" t="s">
+        <v>265</v>
+      </c>
+      <c r="N69" t="s">
+        <v>22</v>
+      </c>
+      <c r="O69" t="s">
+        <v>30</v>
+      </c>
+      <c r="P69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>267</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" t="s">
+        <v>268</v>
+      </c>
+      <c r="D70" t="s">
+        <v>269</v>
+      </c>
+      <c r="E70" t="s">
+        <v>270</v>
+      </c>
+      <c r="F70" t="s">
+        <v>57</v>
+      </c>
+      <c r="G70" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
+        <v>1.92</v>
+      </c>
+      <c r="J70" s="1">
+        <v>5.76</v>
+      </c>
+      <c r="K70">
+        <v>986</v>
+      </c>
+      <c r="L70" t="s">
+        <v>71</v>
+      </c>
+      <c r="M70" t="s">
+        <v>271</v>
+      </c>
+      <c r="N70" t="s">
+        <v>22</v>
+      </c>
+      <c r="O70" t="s">
+        <v>30</v>
+      </c>
+      <c r="P70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>510</v>
+      </c>
+      <c r="B71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" t="s">
+        <v>511</v>
+      </c>
+      <c r="D71" t="s">
+        <v>274</v>
+      </c>
+      <c r="E71" t="s">
+        <v>299</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71">
+        <v>0.1</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K71">
+        <v>69959</v>
+      </c>
+      <c r="L71" t="s">
+        <v>161</v>
+      </c>
+      <c r="M71" t="s">
+        <v>512</v>
+      </c>
+      <c r="N71" t="s">
+        <v>22</v>
+      </c>
+      <c r="O71" t="s">
+        <v>30</v>
+      </c>
+      <c r="P71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" t="s">
+        <v>274</v>
+      </c>
+      <c r="E72" t="s">
+        <v>153</v>
+      </c>
+      <c r="F72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72">
+        <v>17</v>
+      </c>
+      <c r="I72">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="K72">
+        <v>81933</v>
+      </c>
+      <c r="L72" t="s">
+        <v>154</v>
+      </c>
+      <c r="M72" t="s">
+        <v>155</v>
+      </c>
+      <c r="N72" t="s">
+        <v>22</v>
+      </c>
+      <c r="O72" t="s">
+        <v>30</v>
+      </c>
+      <c r="P72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>272</v>
+      </c>
+      <c r="B73" t="s">
+        <v>253</v>
+      </c>
+      <c r="C73" t="s">
+        <v>273</v>
+      </c>
+      <c r="D73" t="s">
+        <v>274</v>
+      </c>
+      <c r="E73" t="s">
+        <v>275</v>
+      </c>
+      <c r="F73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73">
+        <v>26</v>
+      </c>
+      <c r="I73">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="J73" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>132</v>
+      </c>
+      <c r="M73" t="s">
+        <v>276</v>
+      </c>
+      <c r="N73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O73" t="s">
+        <v>30</v>
+      </c>
+      <c r="P73" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>620</v>
+      </c>
+      <c r="R73">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>457</v>
+      </c>
+      <c r="B74" t="s">
+        <v>458</v>
+      </c>
+      <c r="C74" t="s">
+        <v>459</v>
+      </c>
+      <c r="D74" t="s">
+        <v>460</v>
+      </c>
+      <c r="E74" t="s">
+        <v>461</v>
+      </c>
+      <c r="F74" t="s">
         <v>119</v>
-      </c>
-      <c r="G69" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>0.66</v>
-      </c>
-      <c r="J69" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="K69">
-        <v>822</v>
-      </c>
-      <c r="L69" t="s">
-        <v>95</v>
-      </c>
-      <c r="M69" t="s">
-        <v>488</v>
-      </c>
-      <c r="N69" t="s">
-        <v>22</v>
-      </c>
-      <c r="O69" t="s">
-        <v>30</v>
-      </c>
-      <c r="P69" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>121</v>
-      </c>
-      <c r="B70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C70" t="s">
-        <v>123</v>
-      </c>
-      <c r="D70" t="s">
-        <v>124</v>
-      </c>
-      <c r="E70" t="s">
-        <v>125</v>
-      </c>
-      <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>0.45</v>
-      </c>
-      <c r="J70" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="K70">
-        <v>6056</v>
-      </c>
-      <c r="L70" t="s">
-        <v>126</v>
-      </c>
-      <c r="M70" t="s">
-        <v>127</v>
-      </c>
-      <c r="N70" t="s">
-        <v>22</v>
-      </c>
-      <c r="O70" t="s">
-        <v>30</v>
-      </c>
-      <c r="P70" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>468</v>
-      </c>
-      <c r="B71" t="s">
-        <v>469</v>
-      </c>
-      <c r="C71" t="s">
-        <v>470</v>
-      </c>
-      <c r="D71" t="s">
-        <v>471</v>
-      </c>
-      <c r="E71" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" t="s">
-        <v>119</v>
-      </c>
-      <c r="G71" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <v>3.97</v>
-      </c>
-      <c r="J71" s="1">
-        <v>3.97</v>
-      </c>
-      <c r="K71">
-        <v>1711</v>
-      </c>
-      <c r="L71" t="s">
-        <v>21</v>
-      </c>
-      <c r="M71" t="s">
-        <v>472</v>
-      </c>
-      <c r="N71" t="s">
-        <v>22</v>
-      </c>
-      <c r="O71" t="s">
-        <v>30</v>
-      </c>
-      <c r="P71" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>521</v>
-      </c>
-      <c r="B72" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" t="s">
-        <v>522</v>
-      </c>
-      <c r="D72" t="s">
-        <v>614</v>
-      </c>
-      <c r="E72" t="s">
-        <v>383</v>
-      </c>
-      <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72">
-        <v>4</v>
-      </c>
-      <c r="I72">
-        <v>0.18</v>
-      </c>
-      <c r="J72" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="K72">
-        <v>1261</v>
-      </c>
-      <c r="L72" t="s">
-        <v>28</v>
-      </c>
-      <c r="M72" t="s">
-        <v>523</v>
-      </c>
-      <c r="N72" t="s">
-        <v>22</v>
-      </c>
-      <c r="O72" t="s">
-        <v>30</v>
-      </c>
-      <c r="P72" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>310</v>
-      </c>
-      <c r="B73" t="s">
-        <v>311</v>
-      </c>
-      <c r="C73" t="s">
-        <v>312</v>
-      </c>
-      <c r="D73" t="s">
-        <v>313</v>
-      </c>
-      <c r="E73" t="s">
-        <v>314</v>
-      </c>
-      <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73">
-        <v>2</v>
-      </c>
-      <c r="I73">
-        <v>0.17</v>
-      </c>
-      <c r="J73" s="1">
-        <v>0.34</v>
-      </c>
-      <c r="K73">
-        <v>68109</v>
-      </c>
-      <c r="L73" t="s">
-        <v>315</v>
-      </c>
-      <c r="M73" t="s">
-        <v>316</v>
-      </c>
-      <c r="N73" t="s">
-        <v>22</v>
-      </c>
-      <c r="O73" t="s">
-        <v>30</v>
-      </c>
-      <c r="P73" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>167</v>
-      </c>
-      <c r="B74" t="s">
-        <v>157</v>
-      </c>
-      <c r="C74" t="s">
-        <v>168</v>
-      </c>
-      <c r="D74" t="s">
-        <v>169</v>
-      </c>
-      <c r="E74" t="s">
-        <v>170</v>
-      </c>
-      <c r="F74" t="s">
-        <v>19</v>
       </c>
       <c r="G74" t="s">
         <v>20</v>
@@ -5904,69 +5940,69 @@
         <v>2</v>
       </c>
       <c r="I74">
-        <v>0.1</v>
+        <v>7.04</v>
       </c>
       <c r="J74" s="1">
+        <v>14.08</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74" t="s">
+        <v>95</v>
+      </c>
+      <c r="M74" t="s">
+        <v>462</v>
+      </c>
+      <c r="N74" t="s">
+        <v>260</v>
+      </c>
+      <c r="O74" t="s">
+        <v>30</v>
+      </c>
+      <c r="P74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" t="s">
+        <v>165</v>
+      </c>
+      <c r="E75" t="s">
+        <v>578</v>
+      </c>
+      <c r="F75" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
         <v>0.2</v>
       </c>
-      <c r="K74">
-        <v>1313728</v>
-      </c>
-      <c r="L74" t="s">
-        <v>171</v>
-      </c>
-      <c r="M74" t="s">
-        <v>172</v>
-      </c>
-      <c r="N74" t="s">
-        <v>22</v>
-      </c>
-      <c r="O74" t="s">
-        <v>30</v>
-      </c>
-      <c r="P74" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>277</v>
-      </c>
-      <c r="B75" t="s">
-        <v>102</v>
-      </c>
-      <c r="C75" t="s">
-        <v>278</v>
-      </c>
-      <c r="D75" t="s">
-        <v>279</v>
-      </c>
-      <c r="E75" t="s">
-        <v>280</v>
-      </c>
-      <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s">
-        <v>20</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75">
-        <v>0.46</v>
-      </c>
       <c r="J75" s="1">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="K75">
-        <v>26715</v>
+        <v>1133837</v>
       </c>
       <c r="L75" t="s">
-        <v>281</v>
+        <v>71</v>
       </c>
       <c r="M75" t="s">
-        <v>282</v>
+        <v>166</v>
       </c>
       <c r="N75" t="s">
         <v>22</v>
@@ -5977,22 +6013,25 @@
       <c r="P75" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R75">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="C76" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="D76" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="E76" t="s">
-        <v>516</v>
+        <v>329</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
@@ -6004,19 +6043,19 @@
         <v>3</v>
       </c>
       <c r="I76">
-        <v>0.1</v>
+        <v>1.06</v>
       </c>
       <c r="J76" s="1">
-        <v>0.3</v>
+        <v>3.18</v>
       </c>
       <c r="K76">
-        <v>59029</v>
+        <v>189701</v>
       </c>
       <c r="L76" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="M76" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="N76" t="s">
         <v>22</v>
@@ -6028,18 +6067,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="B77" t="s">
         <v>157</v>
       </c>
       <c r="C77" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="D77" t="s">
-        <v>207</v>
+        <v>169</v>
+      </c>
+      <c r="E77" t="s">
+        <v>170</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -6048,22 +6090,22 @@
         <v>20</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <v>0.1</v>
       </c>
       <c r="J77" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="K77" t="s">
-        <v>208</v>
+        <v>0.2</v>
+      </c>
+      <c r="K77">
+        <v>1313728</v>
       </c>
       <c r="L77" t="s">
         <v>171</v>
       </c>
       <c r="M77" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="N77" t="s">
         <v>22</v>
@@ -6074,22 +6116,25 @@
       <c r="P77" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R77">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="C78" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="D78" t="s">
-        <v>274</v>
+        <v>495</v>
       </c>
       <c r="E78" t="s">
-        <v>299</v>
+        <v>496</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -6098,25 +6143,25 @@
         <v>20</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>0.1</v>
+        <v>0.81</v>
       </c>
       <c r="J78" s="1">
-        <v>0.3</v>
+        <v>0.81</v>
       </c>
       <c r="K78">
-        <v>69959</v>
+        <v>7663</v>
       </c>
       <c r="L78" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="M78" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="N78" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="O78" t="s">
         <v>30</v>
@@ -6125,21 +6170,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>498</v>
       </c>
       <c r="B79" t="s">
         <v>157</v>
       </c>
       <c r="C79" t="s">
-        <v>179</v>
+        <v>499</v>
       </c>
       <c r="D79" t="s">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="E79" t="s">
-        <v>181</v>
+        <v>501</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -6148,22 +6193,22 @@
         <v>20</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0.1</v>
       </c>
       <c r="J79" s="1">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="K79">
-        <v>241826</v>
+        <v>7306</v>
       </c>
       <c r="L79" t="s">
         <v>161</v>
       </c>
       <c r="M79" t="s">
-        <v>182</v>
+        <v>502</v>
       </c>
       <c r="N79" t="s">
         <v>22</v>
@@ -6175,18 +6220,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="D80" t="s">
-        <v>202</v>
+        <v>175</v>
+      </c>
+      <c r="E80" t="s">
+        <v>176</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -6195,22 +6243,22 @@
         <v>20</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>0.1</v>
       </c>
       <c r="J80" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="K80" t="s">
-        <v>203</v>
+        <v>0.1</v>
+      </c>
+      <c r="K80">
+        <v>446502</v>
       </c>
       <c r="L80" t="s">
         <v>161</v>
       </c>
       <c r="M80" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="N80" t="s">
         <v>22</v>
@@ -6221,25 +6269,28 @@
       <c r="P80" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R80">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>293</v>
+        <v>503</v>
       </c>
       <c r="B81" t="s">
-        <v>294</v>
+        <v>504</v>
       </c>
       <c r="C81" t="s">
-        <v>295</v>
+        <v>505</v>
       </c>
       <c r="D81" t="s">
-        <v>296</v>
+        <v>506</v>
       </c>
       <c r="E81" t="s">
-        <v>297</v>
+        <v>507</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
+        <v>508</v>
       </c>
       <c r="G81" t="s">
         <v>20</v>
@@ -6248,22 +6299,22 @@
         <v>1</v>
       </c>
       <c r="I81">
-        <v>0.1</v>
+        <v>12.47</v>
       </c>
       <c r="J81" s="1">
-        <v>0.1</v>
+        <v>12.47</v>
       </c>
       <c r="K81">
-        <v>17890</v>
+        <v>160</v>
       </c>
       <c r="L81" t="s">
+        <v>21</v>
+      </c>
+      <c r="M81" t="s">
+        <v>509</v>
+      </c>
+      <c r="N81" t="s">
         <v>23</v>
-      </c>
-      <c r="M81" t="s">
-        <v>298</v>
-      </c>
-      <c r="N81" t="s">
-        <v>22</v>
       </c>
       <c r="O81" t="s">
         <v>30</v>
@@ -6272,71 +6323,71 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>156</v>
+        <v>463</v>
       </c>
       <c r="B82" t="s">
+        <v>458</v>
+      </c>
+      <c r="C82" t="s">
+        <v>464</v>
+      </c>
+      <c r="D82" t="s">
+        <v>465</v>
+      </c>
+      <c r="E82" t="s">
+        <v>466</v>
+      </c>
+      <c r="F82" t="s">
+        <v>187</v>
+      </c>
+      <c r="G82" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+      <c r="I82">
+        <v>1.08</v>
+      </c>
+      <c r="J82" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="K82">
+        <v>1574</v>
+      </c>
+      <c r="L82" t="s">
+        <v>58</v>
+      </c>
+      <c r="M82" t="s">
+        <v>467</v>
+      </c>
+      <c r="N82" t="s">
+        <v>260</v>
+      </c>
+      <c r="O82" t="s">
+        <v>30</v>
+      </c>
+      <c r="P82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" t="s">
         <v>157</v>
       </c>
-      <c r="C82" t="s">
-        <v>158</v>
-      </c>
-      <c r="D82" t="s">
-        <v>159</v>
-      </c>
-      <c r="E82" t="s">
-        <v>160</v>
-      </c>
-      <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s">
-        <v>20</v>
-      </c>
-      <c r="H82">
-        <v>4</v>
-      </c>
-      <c r="I82">
-        <v>0.1</v>
-      </c>
-      <c r="J82" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="K82">
-        <v>54094</v>
-      </c>
-      <c r="L82" t="s">
-        <v>161</v>
-      </c>
-      <c r="M82" t="s">
-        <v>162</v>
-      </c>
-      <c r="N82" t="s">
-        <v>22</v>
-      </c>
-      <c r="O82" t="s">
-        <v>30</v>
-      </c>
-      <c r="P82" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>90</v>
-      </c>
-      <c r="B83" t="s">
-        <v>91</v>
-      </c>
       <c r="C83" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="D83" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="E83" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -6348,19 +6399,19 @@
         <v>4</v>
       </c>
       <c r="I83">
-        <v>0.31</v>
+        <v>0.1</v>
       </c>
       <c r="J83" s="1">
-        <v>1.24</v>
+        <v>0.4</v>
       </c>
       <c r="K83">
-        <v>49880</v>
+        <v>241826</v>
       </c>
       <c r="L83" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="M83" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="N83" t="s">
         <v>22</v>
@@ -6371,22 +6422,25 @@
       <c r="P83" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>424</v>
+        <v>66</v>
       </c>
       <c r="B84" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="C84" t="s">
-        <v>425</v>
+        <v>68</v>
       </c>
       <c r="D84" t="s">
-        <v>426</v>
+        <v>69</v>
       </c>
       <c r="E84" t="s">
-        <v>427</v>
+        <v>70</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -6398,19 +6452,19 @@
         <v>2</v>
       </c>
       <c r="I84">
-        <v>0.1</v>
+        <v>0.48</v>
       </c>
       <c r="J84" s="1">
-        <v>0.2</v>
+        <v>0.96</v>
       </c>
       <c r="K84">
-        <v>4026</v>
+        <v>6638</v>
       </c>
       <c r="L84" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="M84" t="s">
-        <v>428</v>
+        <v>72</v>
       </c>
       <c r="N84" t="s">
         <v>22</v>
@@ -6421,22 +6475,22 @@
       <c r="P84" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>434</v>
+        <v>200</v>
       </c>
       <c r="B85" t="s">
         <v>157</v>
       </c>
       <c r="C85" t="s">
-        <v>435</v>
+        <v>201</v>
       </c>
       <c r="D85" t="s">
-        <v>152</v>
-      </c>
-      <c r="E85" t="s">
-        <v>436</v>
+        <v>202</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
@@ -6445,22 +6499,22 @@
         <v>20</v>
       </c>
       <c r="H85">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I85">
         <v>0.1</v>
       </c>
       <c r="J85" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="K85">
-        <v>621947</v>
+        <v>0.2</v>
+      </c>
+      <c r="K85" t="s">
+        <v>203</v>
       </c>
       <c r="L85" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="M85" t="s">
-        <v>437</v>
+        <v>204</v>
       </c>
       <c r="N85" t="s">
         <v>22</v>
@@ -6471,22 +6525,25 @@
       <c r="P85" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>420</v>
+        <v>513</v>
       </c>
       <c r="B86" t="s">
         <v>157</v>
       </c>
       <c r="C86" t="s">
-        <v>421</v>
+        <v>514</v>
       </c>
       <c r="D86" t="s">
-        <v>422</v>
+        <v>515</v>
       </c>
       <c r="E86" t="s">
-        <v>234</v>
+        <v>516</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
@@ -6495,22 +6552,22 @@
         <v>20</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I86">
         <v>0.1</v>
       </c>
       <c r="J86" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K86">
-        <v>5709</v>
+        <v>59029</v>
       </c>
       <c r="L86" t="s">
         <v>161</v>
       </c>
       <c r="M86" t="s">
-        <v>423</v>
+        <v>517</v>
       </c>
       <c r="N86" t="s">
         <v>22</v>
@@ -6522,7 +6579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>518</v>
       </c>
@@ -6572,21 +6629,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>498</v>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>74279220181</v>
       </c>
       <c r="B88" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>499</v>
+        <v>61</v>
       </c>
       <c r="D88" t="s">
-        <v>500</v>
+        <v>62</v>
       </c>
       <c r="E88" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
@@ -6595,22 +6652,22 @@
         <v>20</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I88">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="J88" s="1">
-        <v>0.1</v>
+        <v>1.92</v>
       </c>
       <c r="K88">
-        <v>7306</v>
+        <v>4667</v>
       </c>
       <c r="L88" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="M88" t="s">
-        <v>502</v>
+        <v>65</v>
       </c>
       <c r="N88" t="s">
         <v>22</v>
@@ -6621,19 +6678,25 @@
       <c r="P88" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>217</v>
+        <v>521</v>
       </c>
       <c r="B89" t="s">
-        <v>211</v>
+        <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>218</v>
+        <v>522</v>
       </c>
       <c r="D89" t="s">
-        <v>219</v>
+        <v>614</v>
+      </c>
+      <c r="E89" t="s">
+        <v>383</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -6642,22 +6705,22 @@
         <v>20</v>
       </c>
       <c r="H89">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="J89" s="1">
-        <v>1.28</v>
-      </c>
-      <c r="K89" t="s">
-        <v>220</v>
+        <v>0.72</v>
+      </c>
+      <c r="K89">
+        <v>1261</v>
       </c>
       <c r="L89" t="s">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="M89" t="s">
-        <v>221</v>
+        <v>523</v>
       </c>
       <c r="N89" t="s">
         <v>22</v>
@@ -6669,142 +6732,142 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>222</v>
+        <v>524</v>
       </c>
       <c r="B90" t="s">
-        <v>157</v>
+        <v>525</v>
       </c>
       <c r="C90" t="s">
-        <v>223</v>
+        <v>526</v>
       </c>
       <c r="D90" t="s">
-        <v>224</v>
+        <v>613</v>
+      </c>
+      <c r="E90" t="s">
+        <v>186</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="G90" t="s">
         <v>20</v>
       </c>
       <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90">
+        <v>1.28</v>
+      </c>
+      <c r="J90" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="K90">
+        <v>1702</v>
+      </c>
+      <c r="L90" t="s">
+        <v>71</v>
+      </c>
+      <c r="M90" t="s">
+        <v>527</v>
+      </c>
+      <c r="N90" t="s">
+        <v>22</v>
+      </c>
+      <c r="O90" t="s">
+        <v>30</v>
+      </c>
+      <c r="P90" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>528</v>
+      </c>
+      <c r="B91" t="s">
+        <v>529</v>
+      </c>
+      <c r="C91" t="s">
+        <v>530</v>
+      </c>
+      <c r="D91" t="s">
+        <v>615</v>
+      </c>
+      <c r="F91" t="s">
+        <v>57</v>
+      </c>
+      <c r="G91" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
+      <c r="I91">
+        <v>0.34</v>
+      </c>
+      <c r="J91" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="K91">
+        <v>3694</v>
+      </c>
+      <c r="L91" t="s">
+        <v>480</v>
+      </c>
+      <c r="M91" t="s">
+        <v>531</v>
+      </c>
+      <c r="N91" t="s">
+        <v>22</v>
+      </c>
+      <c r="O91" t="s">
+        <v>30</v>
+      </c>
+      <c r="P91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>468</v>
+      </c>
+      <c r="B92" t="s">
+        <v>469</v>
+      </c>
+      <c r="C92" t="s">
+        <v>470</v>
+      </c>
+      <c r="D92" t="s">
+        <v>471</v>
+      </c>
+      <c r="E92" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" t="s">
+        <v>119</v>
+      </c>
+      <c r="G92" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92">
         <v>1</v>
       </c>
-      <c r="I90">
-        <v>0.1</v>
-      </c>
-      <c r="J90" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="K90">
-        <v>6847</v>
-      </c>
-      <c r="L90" t="s">
-        <v>171</v>
-      </c>
-      <c r="M90" t="s">
-        <v>225</v>
-      </c>
-      <c r="N90" t="s">
-        <v>22</v>
-      </c>
-      <c r="O90" t="s">
-        <v>30</v>
-      </c>
-      <c r="P90" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>78</v>
-      </c>
-      <c r="B91" t="s">
-        <v>79</v>
-      </c>
-      <c r="C91" t="s">
-        <v>80</v>
-      </c>
-      <c r="D91" t="s">
-        <v>81</v>
-      </c>
-      <c r="E91" t="s">
-        <v>82</v>
-      </c>
-      <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s">
-        <v>20</v>
-      </c>
-      <c r="H91">
-        <v>3</v>
-      </c>
-      <c r="I91">
-        <v>0.1</v>
-      </c>
-      <c r="J91" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="K91">
-        <v>1318</v>
-      </c>
-      <c r="L91" t="s">
-        <v>28</v>
-      </c>
-      <c r="M91" t="s">
-        <v>83</v>
-      </c>
-      <c r="N91" t="s">
-        <v>22</v>
-      </c>
-      <c r="O91" t="s">
-        <v>30</v>
-      </c>
-      <c r="P91" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>149</v>
-      </c>
-      <c r="B92" t="s">
-        <v>150</v>
-      </c>
-      <c r="C92" t="s">
-        <v>151</v>
-      </c>
-      <c r="D92" t="s">
-        <v>274</v>
-      </c>
-      <c r="E92" t="s">
-        <v>153</v>
-      </c>
-      <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H92">
-        <v>17</v>
-      </c>
       <c r="I92">
-        <v>7.1999999999999995E-2</v>
+        <v>3.97</v>
       </c>
       <c r="J92" s="1">
-        <v>1.22</v>
+        <v>3.97</v>
       </c>
       <c r="K92">
-        <v>81933</v>
+        <v>1711</v>
       </c>
       <c r="L92" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="M92" t="s">
-        <v>155</v>
+        <v>472</v>
       </c>
       <c r="N92" t="s">
         <v>22</v>
@@ -6816,171 +6879,171 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>272</v>
+        <v>532</v>
       </c>
       <c r="B93" t="s">
-        <v>253</v>
+        <v>533</v>
       </c>
       <c r="C93" t="s">
-        <v>273</v>
+        <v>534</v>
       </c>
       <c r="D93" t="s">
-        <v>274</v>
-      </c>
-      <c r="E93" t="s">
-        <v>275</v>
+        <v>616</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G93" t="s">
         <v>20</v>
       </c>
       <c r="H93">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>0.17599999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="J93" s="1">
-        <v>4.57</v>
+        <v>1.92</v>
       </c>
       <c r="K93">
+        <v>4315</v>
+      </c>
+      <c r="L93" t="s">
+        <v>71</v>
+      </c>
+      <c r="M93" t="s">
+        <v>535</v>
+      </c>
+      <c r="N93" t="s">
+        <v>22</v>
+      </c>
+      <c r="O93" t="s">
+        <v>30</v>
+      </c>
+      <c r="P93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>473</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" t="s">
+        <v>474</v>
+      </c>
+      <c r="D94" t="s">
+        <v>475</v>
+      </c>
+      <c r="E94" t="s">
+        <v>76</v>
+      </c>
+      <c r="F94" t="s">
+        <v>119</v>
+      </c>
+      <c r="G94" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>3.08</v>
+      </c>
+      <c r="J94" s="1">
+        <v>3.08</v>
+      </c>
+      <c r="K94">
+        <v>1046</v>
+      </c>
+      <c r="L94" t="s">
+        <v>21</v>
+      </c>
+      <c r="M94" t="s">
+        <v>292</v>
+      </c>
+      <c r="N94" t="s">
+        <v>22</v>
+      </c>
+      <c r="O94" t="s">
+        <v>30</v>
+      </c>
+      <c r="P94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" t="s">
+        <v>54</v>
+      </c>
+      <c r="D95" t="s">
+        <v>55</v>
+      </c>
+      <c r="E95" t="s">
+        <v>56</v>
+      </c>
+      <c r="F95" t="s">
+        <v>57</v>
+      </c>
+      <c r="G95" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>0.91</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="K95">
+        <v>786</v>
+      </c>
+      <c r="L95" t="s">
+        <v>58</v>
+      </c>
+      <c r="M95" t="s">
+        <v>59</v>
+      </c>
+      <c r="N95" t="s">
+        <v>22</v>
+      </c>
+      <c r="O95" t="s">
+        <v>30</v>
+      </c>
+      <c r="P95" t="s">
+        <v>31</v>
+      </c>
+      <c r="R95">
         <v>0</v>
       </c>
-      <c r="L93" t="s">
-        <v>132</v>
-      </c>
-      <c r="M93" t="s">
-        <v>276</v>
-      </c>
-      <c r="N93" t="s">
-        <v>22</v>
-      </c>
-      <c r="O93" t="s">
-        <v>30</v>
-      </c>
-      <c r="P93" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>429</v>
-      </c>
-      <c r="B94" t="s">
-        <v>91</v>
-      </c>
-      <c r="C94" t="s">
-        <v>430</v>
-      </c>
-      <c r="D94" t="s">
-        <v>431</v>
-      </c>
-      <c r="E94" t="s">
-        <v>432</v>
-      </c>
-      <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s">
-        <v>20</v>
-      </c>
-      <c r="H94">
-        <v>6</v>
-      </c>
-      <c r="I94">
-        <v>0.31</v>
-      </c>
-      <c r="J94" s="1">
-        <v>1.86</v>
-      </c>
-      <c r="K94">
-        <v>3810</v>
-      </c>
-      <c r="L94" t="s">
-        <v>95</v>
-      </c>
-      <c r="M94" t="s">
-        <v>433</v>
-      </c>
-      <c r="N94" t="s">
-        <v>22</v>
-      </c>
-      <c r="O94" t="s">
-        <v>30</v>
-      </c>
-      <c r="P94" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>226</v>
-      </c>
-      <c r="B95" t="s">
-        <v>91</v>
-      </c>
-      <c r="C95" t="s">
-        <v>227</v>
-      </c>
-      <c r="D95" t="s">
-        <v>228</v>
-      </c>
-      <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s">
-        <v>20</v>
-      </c>
-      <c r="H95">
-        <v>3</v>
-      </c>
-      <c r="I95">
-        <v>0.31</v>
-      </c>
-      <c r="J95" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="K95" t="s">
-        <v>229</v>
-      </c>
-      <c r="L95" t="s">
-        <v>95</v>
-      </c>
-      <c r="M95" t="s">
-        <v>230</v>
-      </c>
-      <c r="N95" t="s">
-        <v>22</v>
-      </c>
-      <c r="O95" t="s">
-        <v>30</v>
-      </c>
-      <c r="P95" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>597</v>
+        <v>477</v>
       </c>
       <c r="B96" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="C96" t="s">
-        <v>598</v>
+        <v>478</v>
       </c>
       <c r="D96" t="s">
-        <v>599</v>
+        <v>479</v>
       </c>
       <c r="E96" t="s">
-        <v>600</v>
+        <v>51</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
@@ -6992,19 +7055,19 @@
         <v>1</v>
       </c>
       <c r="I96">
-        <v>0.1</v>
+        <v>0.64</v>
       </c>
       <c r="J96" s="1">
-        <v>0.1</v>
+        <v>0.64</v>
       </c>
       <c r="K96">
-        <v>12098</v>
+        <v>2266</v>
       </c>
       <c r="L96" t="s">
-        <v>58</v>
+        <v>480</v>
       </c>
       <c r="M96" t="s">
-        <v>601</v>
+        <v>481</v>
       </c>
       <c r="N96" t="s">
         <v>22</v>
@@ -7013,27 +7076,27 @@
         <v>30</v>
       </c>
       <c r="P96" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>588</v>
+        <v>482</v>
       </c>
       <c r="B97" t="s">
-        <v>253</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>589</v>
+        <v>483</v>
       </c>
       <c r="D97" t="s">
-        <v>590</v>
+        <v>484</v>
       </c>
       <c r="E97" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="G97" t="s">
         <v>20</v>
@@ -7042,19 +7105,19 @@
         <v>1</v>
       </c>
       <c r="I97">
-        <v>0.1</v>
+        <v>17.72</v>
       </c>
       <c r="J97" s="1">
-        <v>0.1</v>
+        <v>17.72</v>
       </c>
       <c r="K97">
-        <v>1235</v>
+        <v>977</v>
       </c>
       <c r="L97" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M97" t="s">
-        <v>591</v>
+        <v>485</v>
       </c>
       <c r="N97" t="s">
         <v>22</v>
@@ -7063,48 +7126,48 @@
         <v>30</v>
       </c>
       <c r="P97" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>415</v>
+        <v>486</v>
       </c>
       <c r="B98" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C98" t="s">
-        <v>416</v>
+        <v>487</v>
       </c>
       <c r="D98" t="s">
-        <v>417</v>
+        <v>611</v>
       </c>
       <c r="E98" t="s">
-        <v>418</v>
+        <v>327</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="G98" t="s">
         <v>20</v>
       </c>
       <c r="H98">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>0.26</v>
+        <v>0.66</v>
       </c>
       <c r="J98" s="1">
-        <v>5.2</v>
+        <v>0.66</v>
       </c>
       <c r="K98">
-        <v>609132</v>
+        <v>822</v>
       </c>
       <c r="L98" t="s">
         <v>95</v>
       </c>
       <c r="M98" t="s">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="N98" t="s">
         <v>22</v>
@@ -7118,19 +7181,19 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>443</v>
+        <v>536</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>537</v>
       </c>
       <c r="C99" t="s">
-        <v>444</v>
+        <v>538</v>
       </c>
       <c r="D99" t="s">
-        <v>445</v>
+        <v>539</v>
       </c>
       <c r="E99" t="s">
-        <v>446</v>
+        <v>540</v>
       </c>
       <c r="F99" t="s">
         <v>19</v>
@@ -7139,48 +7202,48 @@
         <v>20</v>
       </c>
       <c r="H99">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>5.6000000000000001E-2</v>
+        <v>9.27</v>
       </c>
       <c r="J99" s="1">
-        <v>0.67</v>
+        <v>27.81</v>
       </c>
       <c r="K99">
-        <v>7272</v>
+        <v>4355</v>
       </c>
       <c r="L99" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="M99" t="s">
-        <v>447</v>
+        <v>541</v>
       </c>
       <c r="N99" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="O99" t="s">
         <v>30</v>
       </c>
       <c r="P99" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>448</v>
+        <v>542</v>
       </c>
       <c r="B100" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C100" t="s">
-        <v>449</v>
+        <v>543</v>
       </c>
       <c r="D100" t="s">
-        <v>450</v>
+        <v>544</v>
       </c>
       <c r="E100" t="s">
-        <v>451</v>
+        <v>56</v>
       </c>
       <c r="F100" t="s">
         <v>19</v>
@@ -7192,19 +7255,19 @@
         <v>3</v>
       </c>
       <c r="I100">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="J100" s="1">
-        <v>0.93</v>
+        <v>0.81</v>
       </c>
       <c r="K100">
-        <v>5137</v>
+        <v>32779</v>
       </c>
       <c r="L100" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="M100" t="s">
-        <v>452</v>
+        <v>545</v>
       </c>
       <c r="N100" t="s">
         <v>22</v>
@@ -7213,24 +7276,24 @@
         <v>30</v>
       </c>
       <c r="P100" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>602</v>
+        <v>546</v>
       </c>
       <c r="B101" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="C101" t="s">
-        <v>603</v>
+        <v>547</v>
       </c>
       <c r="D101" t="s">
-        <v>604</v>
+        <v>548</v>
       </c>
       <c r="E101" t="s">
-        <v>299</v>
+        <v>549</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
@@ -7239,22 +7302,22 @@
         <v>20</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I101">
-        <v>0.1</v>
+        <v>0.51</v>
       </c>
       <c r="J101" s="1">
-        <v>0.3</v>
+        <v>2.04</v>
       </c>
       <c r="K101">
-        <v>26088</v>
+        <v>260340</v>
       </c>
       <c r="L101" t="s">
-        <v>58</v>
+        <v>315</v>
       </c>
       <c r="M101" t="s">
-        <v>605</v>
+        <v>550</v>
       </c>
       <c r="N101" t="s">
         <v>22</v>
@@ -7268,19 +7331,19 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>438</v>
+        <v>551</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C102" t="s">
-        <v>439</v>
+        <v>552</v>
       </c>
       <c r="D102" t="s">
-        <v>440</v>
+        <v>553</v>
       </c>
       <c r="E102" t="s">
-        <v>441</v>
+        <v>88</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -7289,22 +7352,22 @@
         <v>20</v>
       </c>
       <c r="H102">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I102">
-        <v>0.1</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="J102" s="1">
-        <v>0.8</v>
+        <v>5.39</v>
       </c>
       <c r="K102">
-        <v>27789</v>
+        <v>249174</v>
       </c>
       <c r="L102" t="s">
-        <v>281</v>
+        <v>132</v>
       </c>
       <c r="M102" t="s">
-        <v>442</v>
+        <v>554</v>
       </c>
       <c r="N102" t="s">
         <v>22</v>
@@ -7318,19 +7381,19 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>341</v>
+        <v>555</v>
       </c>
       <c r="B103" t="s">
-        <v>342</v>
+        <v>33</v>
       </c>
       <c r="C103" t="s">
-        <v>343</v>
+        <v>556</v>
       </c>
       <c r="D103" t="s">
-        <v>344</v>
+        <v>557</v>
       </c>
       <c r="E103" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -7339,48 +7402,48 @@
         <v>20</v>
       </c>
       <c r="H103">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I103">
-        <v>0.49399999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="J103" s="1">
-        <v>6.42</v>
+        <v>0.4</v>
       </c>
       <c r="K103">
-        <v>7665</v>
+        <v>377237</v>
       </c>
       <c r="L103" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="M103" t="s">
-        <v>346</v>
+        <v>558</v>
       </c>
       <c r="N103" t="s">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="O103" t="s">
         <v>30</v>
       </c>
       <c r="P103" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>410</v>
+        <v>559</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="C104" t="s">
-        <v>411</v>
+        <v>560</v>
       </c>
       <c r="D104" t="s">
-        <v>412</v>
+        <v>561</v>
       </c>
       <c r="E104" t="s">
-        <v>413</v>
+        <v>562</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -7389,51 +7452,51 @@
         <v>20</v>
       </c>
       <c r="H104">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>0.1</v>
+        <v>0.89</v>
       </c>
       <c r="J104" s="1">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="K104">
-        <v>25110</v>
+        <v>0</v>
       </c>
       <c r="L104" t="s">
-        <v>281</v>
+        <v>28</v>
       </c>
       <c r="M104" t="s">
-        <v>414</v>
+        <v>563</v>
       </c>
       <c r="N104" t="s">
         <v>22</v>
       </c>
       <c r="O104" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P104" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>592</v>
+        <v>564</v>
       </c>
       <c r="B105" t="s">
-        <v>79</v>
+        <v>525</v>
       </c>
       <c r="C105" t="s">
-        <v>593</v>
+        <v>565</v>
       </c>
       <c r="D105" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="E105" t="s">
-        <v>595</v>
+        <v>186</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G105" t="s">
         <v>20</v>
@@ -7442,19 +7505,19 @@
         <v>1</v>
       </c>
       <c r="I105">
-        <v>0.1</v>
+        <v>2.39</v>
       </c>
       <c r="J105" s="1">
-        <v>0.1</v>
+        <v>2.39</v>
       </c>
       <c r="K105">
-        <v>43713</v>
+        <v>1285</v>
       </c>
       <c r="L105" t="s">
-        <v>315</v>
+        <v>23</v>
       </c>
       <c r="M105" t="s">
-        <v>596</v>
+        <v>567</v>
       </c>
       <c r="N105" t="s">
         <v>22</v>
@@ -7467,20 +7530,23 @@
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>231</v>
+      <c r="A106">
+        <v>39293046</v>
       </c>
       <c r="B106" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="C106" t="s">
-        <v>232</v>
+        <v>568</v>
       </c>
       <c r="D106" t="s">
-        <v>233</v>
+        <v>569</v>
+      </c>
+      <c r="E106" t="s">
+        <v>361</v>
       </c>
       <c r="F106" t="s">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="G106" t="s">
         <v>20</v>
@@ -7489,142 +7555,148 @@
         <v>1</v>
       </c>
       <c r="I106">
+        <v>0.7</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="K106">
+        <v>4999</v>
+      </c>
+      <c r="L106" t="s">
+        <v>21</v>
+      </c>
+      <c r="M106" t="s">
+        <v>570</v>
+      </c>
+      <c r="N106" t="s">
+        <v>22</v>
+      </c>
+      <c r="O106" t="s">
+        <v>30</v>
+      </c>
+      <c r="P106" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>39012040</v>
+      </c>
+      <c r="B107" t="s">
+        <v>183</v>
+      </c>
+      <c r="C107" t="s">
+        <v>571</v>
+      </c>
+      <c r="D107" t="s">
+        <v>572</v>
+      </c>
+      <c r="E107" t="s">
+        <v>361</v>
+      </c>
+      <c r="F107" t="s">
+        <v>57</v>
+      </c>
+      <c r="G107" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>0.31</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="K107">
+        <v>118279</v>
+      </c>
+      <c r="L107" t="s">
+        <v>58</v>
+      </c>
+      <c r="M107" t="s">
+        <v>573</v>
+      </c>
+      <c r="N107" t="s">
+        <v>22</v>
+      </c>
+      <c r="O107" t="s">
+        <v>30</v>
+      </c>
+      <c r="P107" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>39000038</v>
+      </c>
+      <c r="B108" t="s">
+        <v>183</v>
+      </c>
+      <c r="C108" t="s">
+        <v>574</v>
+      </c>
+      <c r="D108" t="s">
+        <v>575</v>
+      </c>
+      <c r="E108" t="s">
+        <v>361</v>
+      </c>
+      <c r="F108" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108">
+        <v>4</v>
+      </c>
+      <c r="I108">
         <v>0.1</v>
       </c>
-      <c r="J106" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="K106" t="s">
-        <v>234</v>
-      </c>
-      <c r="L106" t="s">
-        <v>95</v>
-      </c>
-      <c r="M106" t="s">
-        <v>235</v>
-      </c>
-      <c r="N106" t="s">
-        <v>22</v>
-      </c>
-      <c r="O106" t="s">
-        <v>30</v>
-      </c>
-      <c r="P106" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>210</v>
-      </c>
-      <c r="B107" t="s">
-        <v>211</v>
-      </c>
-      <c r="C107" t="s">
-        <v>212</v>
-      </c>
-      <c r="D107" t="s">
-        <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s">
-        <v>20</v>
-      </c>
-      <c r="H107">
-        <v>16</v>
-      </c>
-      <c r="I107">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="J107" s="1">
-        <v>2.11</v>
-      </c>
-      <c r="K107" t="s">
-        <v>214</v>
-      </c>
-      <c r="L107" t="s">
-        <v>215</v>
-      </c>
-      <c r="M107" t="s">
-        <v>216</v>
-      </c>
-      <c r="N107" t="s">
-        <v>22</v>
-      </c>
-      <c r="O107" t="s">
-        <v>30</v>
-      </c>
-      <c r="P107" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>134</v>
-      </c>
-      <c r="B108" t="s">
-        <v>135</v>
-      </c>
-      <c r="C108" t="s">
-        <v>136</v>
-      </c>
-      <c r="D108" t="s">
-        <v>137</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="J108" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K108">
+        <v>841804</v>
+      </c>
+      <c r="L108" t="s">
+        <v>576</v>
+      </c>
+      <c r="M108" t="s">
+        <v>577</v>
+      </c>
+      <c r="N108" t="s">
+        <v>22</v>
+      </c>
+      <c r="O108" t="s">
+        <v>30</v>
+      </c>
+      <c r="P108" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>31.8201</v>
+      </c>
+      <c r="B109" t="s">
+        <v>579</v>
+      </c>
+      <c r="C109" t="s">
+        <v>580</v>
+      </c>
+      <c r="D109" t="s">
+        <v>581</v>
+      </c>
+      <c r="E109" t="s">
+        <v>582</v>
+      </c>
+      <c r="F109" t="s">
         <v>57</v>
-      </c>
-      <c r="G108" t="s">
-        <v>20</v>
-      </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-      <c r="I108">
-        <v>0.5</v>
-      </c>
-      <c r="J108" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K108">
-        <v>7627</v>
-      </c>
-      <c r="L108" t="s">
-        <v>21</v>
-      </c>
-      <c r="M108" t="s">
-        <v>138</v>
-      </c>
-      <c r="N108" t="s">
-        <v>22</v>
-      </c>
-      <c r="O108" t="s">
-        <v>30</v>
-      </c>
-      <c r="P108" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>109</v>
-      </c>
-      <c r="C109" t="s">
-        <v>110</v>
-      </c>
-      <c r="D109" t="s">
-        <v>111</v>
-      </c>
-      <c r="E109" t="s">
-        <v>317</v>
-      </c>
-      <c r="F109" t="s">
-        <v>19</v>
       </c>
       <c r="G109" t="s">
         <v>20</v>
@@ -7633,19 +7705,19 @@
         <v>1</v>
       </c>
       <c r="I109">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="J109" s="1">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="K109">
-        <v>10000</v>
+        <v>44185</v>
       </c>
       <c r="L109" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="M109" t="s">
-        <v>113</v>
+        <v>583</v>
       </c>
       <c r="N109" t="s">
         <v>22</v>
@@ -7659,19 +7731,19 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>318</v>
+        <v>588</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>253</v>
       </c>
       <c r="C110" t="s">
-        <v>319</v>
+        <v>589</v>
       </c>
       <c r="D110" t="s">
-        <v>320</v>
+        <v>590</v>
       </c>
       <c r="E110" t="s">
-        <v>112</v>
+        <v>297</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
@@ -7680,22 +7752,22 @@
         <v>20</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>0.64</v>
+        <v>0.1</v>
       </c>
       <c r="J110" s="1">
-        <v>1.28</v>
+        <v>0.1</v>
       </c>
       <c r="K110">
-        <v>2824</v>
+        <v>1235</v>
       </c>
       <c r="L110" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="M110" t="s">
-        <v>321</v>
+        <v>591</v>
       </c>
       <c r="N110" t="s">
         <v>22</v>
@@ -7704,24 +7776,24 @@
         <v>30</v>
       </c>
       <c r="P110" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>379</v>
+        <v>592</v>
       </c>
       <c r="B111" t="s">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="C111" t="s">
-        <v>381</v>
+        <v>593</v>
       </c>
       <c r="D111" t="s">
-        <v>382</v>
+        <v>594</v>
       </c>
       <c r="E111" t="s">
-        <v>383</v>
+        <v>595</v>
       </c>
       <c r="F111" t="s">
         <v>19</v>
@@ -7730,22 +7802,22 @@
         <v>20</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="J111" s="1">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="K111">
-        <v>597</v>
+        <v>43713</v>
       </c>
       <c r="L111" t="s">
-        <v>154</v>
+        <v>315</v>
       </c>
       <c r="M111" t="s">
-        <v>384</v>
+        <v>596</v>
       </c>
       <c r="N111" t="s">
         <v>22</v>
@@ -7759,19 +7831,19 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>236</v>
+        <v>597</v>
       </c>
       <c r="B112" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="C112" t="s">
-        <v>237</v>
+        <v>598</v>
       </c>
       <c r="D112" t="s">
-        <v>238</v>
+        <v>599</v>
       </c>
       <c r="E112" t="s">
-        <v>239</v>
+        <v>600</v>
       </c>
       <c r="F112" t="s">
         <v>19</v>
@@ -7780,48 +7852,48 @@
         <v>20</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
       <c r="J112" s="1">
-        <v>1.48</v>
+        <v>0.1</v>
       </c>
       <c r="K112">
-        <v>26552</v>
+        <v>12098</v>
       </c>
       <c r="L112" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="M112" t="s">
-        <v>240</v>
+        <v>601</v>
       </c>
       <c r="N112" t="s">
         <v>22</v>
       </c>
       <c r="O112" t="s">
-        <v>241</v>
+        <v>30</v>
       </c>
       <c r="P112" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>824500500</v>
+      <c r="A113" t="s">
+        <v>602</v>
       </c>
       <c r="B113" t="s">
-        <v>60</v>
+        <v>253</v>
       </c>
       <c r="C113" t="s">
-        <v>144</v>
+        <v>603</v>
       </c>
       <c r="D113" t="s">
-        <v>145</v>
+        <v>604</v>
       </c>
       <c r="E113" t="s">
-        <v>146</v>
+        <v>299</v>
       </c>
       <c r="F113" t="s">
         <v>19</v>
@@ -7830,22 +7902,22 @@
         <v>20</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I113">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="J113" s="1">
-        <v>0.54</v>
+        <v>0.3</v>
       </c>
       <c r="K113">
-        <v>184</v>
+        <v>26088</v>
       </c>
       <c r="L113" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="M113" t="s">
-        <v>148</v>
+        <v>605</v>
       </c>
       <c r="N113" t="s">
         <v>22</v>
@@ -7854,24 +7926,24 @@
         <v>30</v>
       </c>
       <c r="P113" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>453</v>
+        <v>606</v>
       </c>
       <c r="B114" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C114" t="s">
-        <v>454</v>
+        <v>607</v>
       </c>
       <c r="D114" t="s">
-        <v>455</v>
+        <v>608</v>
       </c>
       <c r="E114" t="s">
-        <v>193</v>
+        <v>476</v>
       </c>
       <c r="F114" t="s">
         <v>19</v>
@@ -7880,22 +7952,22 @@
         <v>20</v>
       </c>
       <c r="H114">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I114">
-        <v>0.71</v>
+        <v>0.18</v>
       </c>
       <c r="J114" s="1">
-        <v>4.26</v>
+        <v>0.54</v>
       </c>
       <c r="K114">
-        <v>9451</v>
+        <v>115389</v>
       </c>
       <c r="L114" t="s">
-        <v>315</v>
+        <v>58</v>
       </c>
       <c r="M114" t="s">
-        <v>456</v>
+        <v>609</v>
       </c>
       <c r="N114" t="s">
         <v>22</v>
@@ -7904,27 +7976,27 @@
         <v>30</v>
       </c>
       <c r="P114" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>503</v>
+        <v>584</v>
       </c>
       <c r="B115" t="s">
-        <v>504</v>
+        <v>266</v>
       </c>
       <c r="C115" t="s">
-        <v>505</v>
+        <v>585</v>
       </c>
       <c r="D115" t="s">
-        <v>506</v>
+        <v>586</v>
       </c>
       <c r="E115" t="s">
-        <v>507</v>
+        <v>582</v>
       </c>
       <c r="F115" t="s">
-        <v>508</v>
+        <v>57</v>
       </c>
       <c r="G115" t="s">
         <v>20</v>
@@ -7933,22 +8005,22 @@
         <v>1</v>
       </c>
       <c r="I115">
-        <v>12.47</v>
+        <v>0.43</v>
       </c>
       <c r="J115" s="1">
-        <v>12.47</v>
+        <v>0.43</v>
       </c>
       <c r="K115">
-        <v>160</v>
+        <v>2606</v>
       </c>
       <c r="L115" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="M115" t="s">
-        <v>509</v>
+        <v>587</v>
       </c>
       <c r="N115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O115" t="s">
         <v>30</v>
@@ -7959,7 +8031,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R115">
-    <sortCondition ref="M2:M115"/>
+    <sortCondition ref="D2:D115"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/parts/ilemt_parts.xlsx
+++ b/parts/ilemt_parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robma\Documents\Work\ilemt_hw\parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B78059-1624-4393-A46E-EC62DA32631D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2412D1-20D9-47C2-B303-D3DF9D1D4B3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4692" yWindow="1536" windowWidth="16404" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4224" yWindow="4224" windowWidth="34560" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2212,7 +2212,7 @@
   <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R91" sqref="R91"/>
+      <selection activeCell="W20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2286,19 +2286,19 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>618</v>
+        <v>559</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>617</v>
+        <v>560</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>561</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>562</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -2307,22 +2307,22 @@
         <v>20</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>4.3099999999999996</v>
+        <v>0.89</v>
       </c>
       <c r="J2" s="1">
-        <v>21.55</v>
+        <v>0.89</v>
       </c>
       <c r="K2">
-        <v>2495</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>287</v>
+        <v>563</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
@@ -2336,19 +2336,19 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -2357,72 +2357,72 @@
         <v>20</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>4.08</v>
+        <v>0.67</v>
       </c>
       <c r="J3" s="1">
-        <v>20.399999999999999</v>
+        <v>5.36</v>
       </c>
       <c r="K3">
-        <v>4787</v>
+        <v>532</v>
       </c>
       <c r="L3" t="s">
         <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N3" t="s">
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>733910060</v>
+      <c r="A4" t="s">
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>398</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>3.14</v>
+        <v>0.95</v>
       </c>
       <c r="J4" s="1">
-        <v>12.56</v>
+        <v>4.75</v>
       </c>
       <c r="K4">
-        <v>5606</v>
+        <v>6662</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="N4" t="s">
         <v>22</v>
@@ -2432,23 +2432,26 @@
       </c>
       <c r="P4" t="s">
         <v>31</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>369</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>370</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>371</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>372</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>373</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -2457,22 +2460,22 @@
         <v>20</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>0.17699999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="J5" s="1">
-        <v>2.83</v>
+        <v>1.02</v>
       </c>
       <c r="K5">
-        <v>5409</v>
+        <v>91338</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>374</v>
       </c>
       <c r="N5" t="s">
         <v>22</v>
@@ -2486,19 +2489,19 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -2507,22 +2510,22 @@
         <v>20</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="J6" s="1">
-        <v>1.1200000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="K6">
-        <v>775938</v>
+        <v>10759239</v>
       </c>
       <c r="L6" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s">
         <v>22</v>
@@ -2533,46 +2536,49 @@
       <c r="P6" t="s">
         <v>31</v>
       </c>
+      <c r="R6">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>22232031</v>
+      <c r="A7" t="s">
+        <v>542</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>543</v>
       </c>
       <c r="D7" t="s">
-        <v>196</v>
+        <v>544</v>
       </c>
       <c r="E7" t="s">
-        <v>197</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="J7" s="1">
-        <v>0.24</v>
+        <v>0.81</v>
       </c>
       <c r="K7">
-        <v>33319</v>
+        <v>32779</v>
       </c>
       <c r="L7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="M7" t="s">
-        <v>199</v>
+        <v>545</v>
       </c>
       <c r="N7" t="s">
         <v>22</v>
@@ -2581,21 +2587,24 @@
         <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>206</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>87</v>
+      </c>
+      <c r="E8" t="s">
+        <v>288</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -2604,22 +2613,22 @@
         <v>20</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I8">
-        <v>0.1</v>
+        <v>0.47</v>
       </c>
       <c r="J8" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>208</v>
+        <v>3.29</v>
+      </c>
+      <c r="K8">
+        <v>5202</v>
       </c>
       <c r="L8" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="M8" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="N8" t="s">
         <v>22</v>
@@ -2628,21 +2637,27 @@
         <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="R8">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>555</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>212</v>
+        <v>556</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>557</v>
+      </c>
+      <c r="E9" t="s">
+        <v>329</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -2651,22 +2666,22 @@
         <v>20</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0.13200000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="J9" s="1">
-        <v>2.11</v>
-      </c>
-      <c r="K9" t="s">
-        <v>214</v>
+        <v>0.4</v>
+      </c>
+      <c r="K9">
+        <v>377237</v>
       </c>
       <c r="L9" t="s">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>216</v>
+        <v>558</v>
       </c>
       <c r="N9" t="s">
         <v>22</v>
@@ -2675,21 +2690,24 @@
         <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="D10" t="s">
-        <v>219</v>
+        <v>244</v>
+      </c>
+      <c r="E10" t="s">
+        <v>245</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -2698,22 +2716,22 @@
         <v>20</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I10">
-        <v>0.16</v>
+        <v>0.215</v>
       </c>
       <c r="J10" s="1">
-        <v>1.28</v>
-      </c>
-      <c r="K10" t="s">
-        <v>220</v>
+        <v>2.79</v>
+      </c>
+      <c r="K10">
+        <v>7889</v>
       </c>
       <c r="L10" t="s">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="N10" t="s">
         <v>22</v>
@@ -2722,21 +2740,24 @@
         <v>30</v>
       </c>
       <c r="P10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="D11" t="s">
-        <v>224</v>
+        <v>165</v>
+      </c>
+      <c r="E11" t="s">
+        <v>578</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
@@ -2745,22 +2766,22 @@
         <v>20</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J11" s="1">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K11">
-        <v>6847</v>
+        <v>1133837</v>
       </c>
       <c r="L11" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="M11" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="N11" t="s">
         <v>22</v>
@@ -2770,20 +2791,26 @@
       </c>
       <c r="P11" t="s">
         <v>31</v>
+      </c>
+      <c r="R11">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>551</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>552</v>
       </c>
       <c r="D12" t="s">
-        <v>233</v>
+        <v>553</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
@@ -2792,22 +2819,22 @@
         <v>20</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I12">
-        <v>0.1</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="J12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>234</v>
+        <v>5.39</v>
+      </c>
+      <c r="K12">
+        <v>249174</v>
       </c>
       <c r="L12" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="M12" t="s">
-        <v>235</v>
+        <v>554</v>
       </c>
       <c r="N12" t="s">
         <v>22</v>
@@ -2816,24 +2843,24 @@
         <v>30</v>
       </c>
       <c r="P12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>335</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>336</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>337</v>
       </c>
       <c r="D13" t="s">
-        <v>238</v>
+        <v>338</v>
       </c>
       <c r="E13" t="s">
-        <v>239</v>
+        <v>339</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
@@ -2842,28 +2869,28 @@
         <v>20</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I13">
-        <v>0.37</v>
+        <v>0.24</v>
       </c>
       <c r="J13" s="1">
-        <v>1.48</v>
+        <v>1.68</v>
       </c>
       <c r="K13">
-        <v>26552</v>
+        <v>2215457</v>
       </c>
       <c r="L13" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="N13" t="s">
         <v>22</v>
       </c>
       <c r="O13" t="s">
-        <v>241</v>
+        <v>30</v>
       </c>
       <c r="P13" t="s">
         <v>31</v>
@@ -2871,19 +2898,19 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -2892,22 +2919,22 @@
         <v>20</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="I14">
-        <v>13.08</v>
+        <v>0.03</v>
       </c>
       <c r="J14" s="1">
-        <v>26.16</v>
+        <v>1.56</v>
       </c>
       <c r="K14">
-        <v>1099</v>
+        <v>517285</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="N14" t="s">
         <v>22</v>
@@ -2917,23 +2944,26 @@
       </c>
       <c r="P14" t="s">
         <v>31</v>
+      </c>
+      <c r="R14">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>364</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>365</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>366</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>367</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -2942,28 +2972,28 @@
         <v>20</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I15">
-        <v>0.67</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>5.36</v>
+        <v>1.59</v>
       </c>
       <c r="K15">
-        <v>532</v>
+        <v>85601</v>
       </c>
       <c r="L15" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="M15" t="s">
-        <v>47</v>
+        <v>368</v>
       </c>
       <c r="N15" t="s">
         <v>22</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" t="s">
         <v>23</v>
@@ -2971,19 +3001,19 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -2995,19 +3025,19 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.58</v>
+        <v>0.1</v>
       </c>
       <c r="J16" s="1">
-        <v>1.58</v>
+        <v>0.1</v>
       </c>
       <c r="K16">
-        <v>1713</v>
+        <v>446502</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="N16" t="s">
         <v>22</v>
@@ -3017,23 +3047,26 @@
       </c>
       <c r="P16" t="s">
         <v>31</v>
+      </c>
+      <c r="R16">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>242</v>
+        <v>400</v>
       </c>
       <c r="B17" t="s">
         <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>401</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
+        <v>402</v>
       </c>
       <c r="E17" t="s">
-        <v>245</v>
+        <v>403</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -3042,22 +3075,22 @@
         <v>20</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>0.215</v>
+        <v>0.4</v>
       </c>
       <c r="J17" s="1">
-        <v>2.79</v>
+        <v>1.2</v>
       </c>
       <c r="K17">
-        <v>7889</v>
+        <v>16463</v>
       </c>
       <c r="L17" t="s">
         <v>106</v>
       </c>
       <c r="M17" t="s">
-        <v>246</v>
+        <v>404</v>
       </c>
       <c r="N17" t="s">
         <v>22</v>
@@ -3071,19 +3104,19 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>395</v>
       </c>
       <c r="B18" t="s">
         <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>278</v>
+        <v>396</v>
       </c>
       <c r="D18" t="s">
-        <v>279</v>
+        <v>397</v>
       </c>
       <c r="E18" t="s">
-        <v>280</v>
+        <v>398</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -3092,22 +3125,22 @@
         <v>20</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>0.46</v>
+        <v>0.1</v>
       </c>
       <c r="J18" s="1">
-        <v>0.46</v>
+        <v>0.2</v>
       </c>
       <c r="K18">
-        <v>26715</v>
+        <v>21137</v>
       </c>
       <c r="L18" t="s">
-        <v>281</v>
+        <v>106</v>
       </c>
       <c r="M18" t="s">
-        <v>282</v>
+        <v>399</v>
       </c>
       <c r="N18" t="s">
         <v>22</v>
@@ -3121,19 +3154,19 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>489</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>490</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>491</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -3142,22 +3175,22 @@
         <v>20</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>0.53</v>
+        <v>1.06</v>
       </c>
       <c r="J19" s="1">
-        <v>0.53</v>
+        <v>3.18</v>
       </c>
       <c r="K19">
-        <v>3437</v>
+        <v>189701</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="M19" t="s">
-        <v>77</v>
+        <v>492</v>
       </c>
       <c r="N19" t="s">
         <v>22</v>
@@ -3167,50 +3200,47 @@
       </c>
       <c r="P19" t="s">
         <v>31</v>
-      </c>
-      <c r="R19">
-        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="B20" t="s">
-        <v>248</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="D20" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="E20" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
         <v>20</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>8.19</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>24.57</v>
+        <v>5.8</v>
       </c>
       <c r="K20">
-        <v>111</v>
+        <v>135781</v>
       </c>
       <c r="L20" t="s">
         <v>71</v>
       </c>
       <c r="M20" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="N20" t="s">
         <v>22</v>
@@ -3224,19 +3254,19 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>606</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>607</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>608</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>476</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
@@ -3248,19 +3278,19 @@
         <v>3</v>
       </c>
       <c r="I21">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="J21" s="1">
-        <v>0.3</v>
+        <v>0.54</v>
       </c>
       <c r="K21">
-        <v>1318</v>
+        <v>115389</v>
       </c>
       <c r="L21" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="M21" t="s">
-        <v>83</v>
+        <v>609</v>
       </c>
       <c r="N21" t="s">
         <v>22</v>
@@ -3269,27 +3299,24 @@
         <v>30</v>
       </c>
       <c r="P21" t="s">
-        <v>31</v>
-      </c>
-      <c r="R21">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>405</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>370</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>406</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>407</v>
       </c>
       <c r="E22" t="s">
-        <v>288</v>
+        <v>408</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
@@ -3298,22 +3325,22 @@
         <v>20</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22">
-        <v>0.47</v>
+        <v>0.22</v>
       </c>
       <c r="J22" s="1">
-        <v>3.29</v>
+        <v>1.32</v>
       </c>
       <c r="K22">
-        <v>5202</v>
+        <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="M22" t="s">
-        <v>89</v>
+        <v>409</v>
       </c>
       <c r="N22" t="s">
         <v>22</v>
@@ -3322,30 +3349,27 @@
         <v>30</v>
       </c>
       <c r="P22" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>289</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>290</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G23" t="s">
         <v>20</v>
@@ -3354,19 +3378,19 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>3.07</v>
+        <v>0.91</v>
       </c>
       <c r="J23" s="1">
-        <v>3.07</v>
+        <v>0.91</v>
       </c>
       <c r="K23">
-        <v>6950</v>
+        <v>786</v>
       </c>
       <c r="L23" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M23" t="s">
-        <v>292</v>
+        <v>59</v>
       </c>
       <c r="N23" t="s">
         <v>22</v>
@@ -3376,23 +3400,26 @@
       </c>
       <c r="P23" t="s">
         <v>31</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>293</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>294</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>295</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>296</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>297</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
@@ -3401,22 +3428,22 @@
         <v>20</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I24">
-        <v>0.1</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.1</v>
+        <v>2.83</v>
       </c>
       <c r="K24">
-        <v>17890</v>
+        <v>5409</v>
       </c>
       <c r="L24" t="s">
         <v>23</v>
       </c>
       <c r="M24" t="s">
-        <v>298</v>
+        <v>36</v>
       </c>
       <c r="N24" t="s">
         <v>22</v>
@@ -3425,24 +3452,24 @@
         <v>30</v>
       </c>
       <c r="P24" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>262</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>263</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>264</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
@@ -3451,22 +3478,22 @@
         <v>20</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>0.31</v>
+        <v>0.95</v>
       </c>
       <c r="J25" s="1">
-        <v>1.24</v>
+        <v>2.85</v>
       </c>
       <c r="K25">
-        <v>49880</v>
+        <v>4719</v>
       </c>
       <c r="L25" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="M25" t="s">
-        <v>96</v>
+        <v>265</v>
       </c>
       <c r="N25" t="s">
         <v>22</v>
@@ -3476,100 +3503,97 @@
       </c>
       <c r="P25" t="s">
         <v>31</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="B26" t="s">
-        <v>301</v>
+        <v>353</v>
       </c>
       <c r="C26" t="s">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="D26" t="s">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="E26" t="s">
-        <v>186</v>
+        <v>356</v>
       </c>
       <c r="F26" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="G26" t="s">
         <v>20</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>1.58</v>
+        <v>0.42</v>
       </c>
       <c r="J26" s="1">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="K26">
-        <v>178</v>
+        <v>4271</v>
       </c>
       <c r="L26" t="s">
-        <v>71</v>
+        <v>357</v>
       </c>
       <c r="M26" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="N26" t="s">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="O26" t="s">
         <v>30</v>
       </c>
       <c r="P26" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>524</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>525</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>526</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>613</v>
       </c>
       <c r="E27" t="s">
-        <v>398</v>
+        <v>186</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="G27" t="s">
         <v>20</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>0.95</v>
+        <v>1.28</v>
       </c>
       <c r="J27" s="1">
-        <v>4.75</v>
+        <v>2.56</v>
       </c>
       <c r="K27">
-        <v>6662</v>
+        <v>1702</v>
       </c>
       <c r="L27" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="M27" t="s">
-        <v>100</v>
+        <v>527</v>
       </c>
       <c r="N27" t="s">
         <v>22</v>
@@ -3580,49 +3604,46 @@
       <c r="P27" t="s">
         <v>31</v>
       </c>
-      <c r="R27">
-        <v>7</v>
-      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>101</v>
+      <c r="A28">
+        <v>22232031</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G28" t="s">
         <v>20</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="J28" s="1">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
       <c r="K28">
-        <v>10759239</v>
+        <v>33319</v>
       </c>
       <c r="L28" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="M28" t="s">
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="N28" t="s">
         <v>22</v>
@@ -3633,49 +3654,46 @@
       <c r="P28" t="s">
         <v>31</v>
       </c>
-      <c r="R28">
-        <v>70</v>
-      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>305</v>
+      <c r="A29">
+        <v>39293046</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="C29" t="s">
-        <v>306</v>
+        <v>568</v>
       </c>
       <c r="D29" t="s">
-        <v>307</v>
+        <v>569</v>
       </c>
       <c r="E29" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="F29" t="s">
-        <v>119</v>
+        <v>362</v>
       </c>
       <c r="G29" t="s">
         <v>20</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>2.86</v>
+        <v>0.7</v>
       </c>
       <c r="J29" s="1">
-        <v>5.72</v>
+        <v>0.7</v>
       </c>
       <c r="K29">
-        <v>168</v>
+        <v>4999</v>
       </c>
       <c r="L29" t="s">
         <v>21</v>
       </c>
       <c r="M29" t="s">
-        <v>309</v>
+        <v>570</v>
       </c>
       <c r="N29" t="s">
         <v>22</v>
@@ -3688,44 +3706,44 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>310</v>
+      <c r="A30">
+        <v>734151471</v>
       </c>
       <c r="B30" t="s">
-        <v>311</v>
+        <v>183</v>
       </c>
       <c r="C30" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="D30" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="E30" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="G30" t="s">
         <v>20</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I30">
-        <v>0.17</v>
+        <v>2.83</v>
       </c>
       <c r="J30" s="1">
-        <v>0.34</v>
+        <v>16.98</v>
       </c>
       <c r="K30">
-        <v>68109</v>
+        <v>9850</v>
       </c>
       <c r="L30" t="s">
-        <v>315</v>
+        <v>95</v>
       </c>
       <c r="M30" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="N30" t="s">
         <v>22</v>
@@ -3739,22 +3757,22 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>301</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>302</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="E31" t="s">
-        <v>317</v>
+        <v>186</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="G31" t="s">
         <v>20</v>
@@ -3763,125 +3781,122 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0.87</v>
+        <v>1.58</v>
       </c>
       <c r="J31" s="1">
-        <v>0.87</v>
+        <v>1.58</v>
       </c>
       <c r="K31">
-        <v>10000</v>
+        <v>178</v>
       </c>
       <c r="L31" t="s">
         <v>71</v>
       </c>
       <c r="M31" t="s">
-        <v>113</v>
+        <v>304</v>
       </c>
       <c r="N31" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="O31" t="s">
         <v>30</v>
       </c>
       <c r="P31" t="s">
-        <v>31</v>
-      </c>
-      <c r="R31">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>318</v>
+        <v>463</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>458</v>
       </c>
       <c r="C32" t="s">
-        <v>319</v>
+        <v>464</v>
       </c>
       <c r="D32" t="s">
-        <v>320</v>
+        <v>465</v>
       </c>
       <c r="E32" t="s">
-        <v>112</v>
+        <v>466</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="G32" t="s">
         <v>20</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I32">
-        <v>0.64</v>
+        <v>1.08</v>
       </c>
       <c r="J32" s="1">
-        <v>1.28</v>
+        <v>5.4</v>
       </c>
       <c r="K32">
-        <v>2824</v>
+        <v>1574</v>
       </c>
       <c r="L32" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="M32" t="s">
-        <v>321</v>
+        <v>467</v>
       </c>
       <c r="N32" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="O32" t="s">
         <v>30</v>
       </c>
       <c r="P32" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>322</v>
+        <v>457</v>
       </c>
       <c r="B33" t="s">
-        <v>323</v>
+        <v>458</v>
       </c>
       <c r="C33" t="s">
-        <v>324</v>
+        <v>459</v>
       </c>
       <c r="D33" t="s">
-        <v>325</v>
+        <v>460</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>461</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="G33" t="s">
         <v>20</v>
       </c>
       <c r="H33">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>0.09</v>
+        <v>7.04</v>
       </c>
       <c r="J33" s="1">
-        <v>1.17</v>
+        <v>14.08</v>
       </c>
       <c r="K33">
-        <v>23989</v>
+        <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>315</v>
+        <v>95</v>
       </c>
       <c r="M33" t="s">
-        <v>326</v>
+        <v>462</v>
       </c>
       <c r="N33" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="O33" t="s">
         <v>30</v>
@@ -3892,22 +3907,22 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>564</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>525</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>565</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>566</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="F34" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
         <v>20</v>
@@ -3916,19 +3931,19 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>0.66</v>
+        <v>2.39</v>
       </c>
       <c r="J34" s="1">
-        <v>0.66</v>
+        <v>2.39</v>
       </c>
       <c r="K34">
-        <v>546</v>
+        <v>1285</v>
       </c>
       <c r="L34" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="M34" t="s">
-        <v>120</v>
+        <v>567</v>
       </c>
       <c r="N34" t="s">
         <v>22</v>
@@ -3939,28 +3954,25 @@
       <c r="P34" t="s">
         <v>31</v>
       </c>
-      <c r="R34">
-        <v>1</v>
-      </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>121</v>
+      <c r="A35">
+        <v>39012040</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>571</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
+        <v>572</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>361</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G35" t="s">
         <v>20</v>
@@ -3969,19 +3981,19 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
       <c r="J35" s="1">
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
       <c r="K35">
-        <v>6056</v>
+        <v>118279</v>
       </c>
       <c r="L35" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="M35" t="s">
-        <v>127</v>
+        <v>573</v>
       </c>
       <c r="N35" t="s">
         <v>22</v>
@@ -3992,49 +4004,46 @@
       <c r="P35" t="s">
         <v>31</v>
       </c>
-      <c r="R35">
-        <v>2</v>
-      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>128</v>
+      <c r="A36">
+        <v>733910060</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="E36" t="s">
-        <v>329</v>
+        <v>186</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="G36" t="s">
         <v>20</v>
       </c>
       <c r="H36">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="I36">
-        <v>0.03</v>
+        <v>3.14</v>
       </c>
       <c r="J36" s="1">
-        <v>1.56</v>
+        <v>12.56</v>
       </c>
       <c r="K36">
-        <v>517285</v>
+        <v>5606</v>
       </c>
       <c r="L36" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="M36" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="N36" t="s">
         <v>22</v>
@@ -4045,25 +4054,22 @@
       <c r="P36" t="s">
         <v>31</v>
       </c>
-      <c r="R36">
-        <v>35</v>
-      </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>330</v>
+      <c r="A37">
+        <v>39000038</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="C37" t="s">
-        <v>331</v>
+        <v>574</v>
       </c>
       <c r="D37" t="s">
-        <v>332</v>
+        <v>575</v>
       </c>
       <c r="E37" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
@@ -4072,22 +4078,22 @@
         <v>20</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I37">
-        <v>1.1599999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="J37" s="1">
-        <v>5.8</v>
+        <v>0.4</v>
       </c>
       <c r="K37">
-        <v>135781</v>
+        <v>841804</v>
       </c>
       <c r="L37" t="s">
-        <v>71</v>
+        <v>576</v>
       </c>
       <c r="M37" t="s">
-        <v>334</v>
+        <v>577</v>
       </c>
       <c r="N37" t="s">
         <v>22</v>
@@ -4101,19 +4107,19 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>335</v>
+        <v>536</v>
       </c>
       <c r="B38" t="s">
-        <v>336</v>
+        <v>537</v>
       </c>
       <c r="C38" t="s">
-        <v>337</v>
+        <v>538</v>
       </c>
       <c r="D38" t="s">
-        <v>338</v>
+        <v>539</v>
       </c>
       <c r="E38" t="s">
-        <v>339</v>
+        <v>540</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
@@ -4122,72 +4128,72 @@
         <v>20</v>
       </c>
       <c r="H38">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>0.24</v>
+        <v>9.27</v>
       </c>
       <c r="J38" s="1">
-        <v>1.68</v>
+        <v>27.81</v>
       </c>
       <c r="K38">
-        <v>2215457</v>
+        <v>4355</v>
       </c>
       <c r="L38" t="s">
+        <v>315</v>
+      </c>
+      <c r="M38" t="s">
+        <v>541</v>
+      </c>
+      <c r="N38" t="s">
+        <v>260</v>
+      </c>
+      <c r="O38" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38" t="s">
         <v>23</v>
-      </c>
-      <c r="M38" t="s">
-        <v>340</v>
-      </c>
-      <c r="N38" t="s">
-        <v>22</v>
-      </c>
-      <c r="O38" t="s">
-        <v>30</v>
-      </c>
-      <c r="P38" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>247</v>
+        <v>390</v>
       </c>
       <c r="B39" t="s">
-        <v>248</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>249</v>
+        <v>391</v>
       </c>
       <c r="D39" t="s">
-        <v>250</v>
+        <v>392</v>
       </c>
       <c r="E39" t="s">
-        <v>251</v>
+        <v>393</v>
       </c>
       <c r="F39" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
         <v>20</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="I39">
-        <v>24.1</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="J39" s="1">
-        <v>72.3</v>
+        <v>5.37</v>
       </c>
       <c r="K39">
-        <v>79</v>
+        <v>29834</v>
       </c>
       <c r="L39" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="M39" t="s">
-        <v>252</v>
+        <v>394</v>
       </c>
       <c r="N39" t="s">
         <v>22</v>
@@ -4201,19 +4207,19 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>341</v>
+        <v>189</v>
       </c>
       <c r="B40" t="s">
-        <v>342</v>
+        <v>190</v>
       </c>
       <c r="C40" t="s">
-        <v>343</v>
+        <v>191</v>
       </c>
       <c r="D40" t="s">
-        <v>344</v>
+        <v>192</v>
       </c>
       <c r="E40" t="s">
-        <v>345</v>
+        <v>193</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
@@ -4222,48 +4228,48 @@
         <v>20</v>
       </c>
       <c r="H40">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I40">
-        <v>0.49399999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J40" s="1">
-        <v>6.42</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K40">
-        <v>7665</v>
+        <v>775938</v>
       </c>
       <c r="L40" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="M40" t="s">
-        <v>346</v>
+        <v>194</v>
       </c>
       <c r="N40" t="s">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="O40" t="s">
         <v>30</v>
       </c>
       <c r="P40" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>347</v>
+      <c r="A41">
+        <v>74279220181</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>348</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>349</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
-        <v>350</v>
+        <v>496</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
@@ -4272,22 +4278,22 @@
         <v>20</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I41">
-        <v>1.1599999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="J41" s="1">
-        <v>1.1599999999999999</v>
+        <v>1.92</v>
       </c>
       <c r="K41">
-        <v>4383</v>
+        <v>4667</v>
       </c>
       <c r="L41" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="M41" t="s">
-        <v>351</v>
+        <v>65</v>
       </c>
       <c r="N41" t="s">
         <v>22</v>
@@ -4297,50 +4303,53 @@
       </c>
       <c r="P41" t="s">
         <v>31</v>
+      </c>
+      <c r="R41">
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>352</v>
+        <v>254</v>
       </c>
       <c r="B42" t="s">
-        <v>353</v>
+        <v>255</v>
       </c>
       <c r="C42" t="s">
-        <v>354</v>
+        <v>256</v>
       </c>
       <c r="D42" t="s">
-        <v>355</v>
+        <v>257</v>
       </c>
       <c r="E42" t="s">
-        <v>356</v>
+        <v>258</v>
       </c>
       <c r="F42" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
         <v>20</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I42">
-        <v>0.42</v>
+        <v>0.18</v>
       </c>
       <c r="J42" s="1">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="K42">
-        <v>4271</v>
+        <v>337475</v>
       </c>
       <c r="L42" t="s">
-        <v>357</v>
+        <v>71</v>
       </c>
       <c r="M42" t="s">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="N42" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="O42" t="s">
         <v>30</v>
@@ -4351,96 +4360,96 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>323</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>324</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>325</v>
+      </c>
+      <c r="E43" t="s">
+        <v>63</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
         <v>20</v>
       </c>
       <c r="H43">
+        <v>13</v>
+      </c>
+      <c r="I43">
+        <v>0.09</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="K43">
+        <v>23989</v>
+      </c>
+      <c r="L43" t="s">
+        <v>315</v>
+      </c>
+      <c r="M43" t="s">
+        <v>326</v>
+      </c>
+      <c r="N43" t="s">
+        <v>22</v>
+      </c>
+      <c r="O43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>493</v>
+      </c>
+      <c r="B44" t="s">
+        <v>255</v>
+      </c>
+      <c r="C44" t="s">
+        <v>494</v>
+      </c>
+      <c r="D44" t="s">
+        <v>495</v>
+      </c>
+      <c r="E44" t="s">
+        <v>496</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44">
         <v>1</v>
       </c>
-      <c r="I43">
-        <v>0.5</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K43">
-        <v>7627</v>
-      </c>
-      <c r="L43" t="s">
-        <v>21</v>
-      </c>
-      <c r="M43" t="s">
-        <v>138</v>
-      </c>
-      <c r="N43" t="s">
-        <v>22</v>
-      </c>
-      <c r="O43" t="s">
-        <v>30</v>
-      </c>
-      <c r="P43" t="s">
-        <v>31</v>
-      </c>
-      <c r="R43">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>734151471</v>
-      </c>
-      <c r="B44" t="s">
-        <v>183</v>
-      </c>
-      <c r="C44" t="s">
-        <v>359</v>
-      </c>
-      <c r="D44" t="s">
-        <v>360</v>
-      </c>
-      <c r="E44" t="s">
-        <v>361</v>
-      </c>
-      <c r="F44" t="s">
-        <v>362</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44">
-        <v>6</v>
-      </c>
       <c r="I44">
-        <v>2.83</v>
+        <v>0.81</v>
       </c>
       <c r="J44" s="1">
-        <v>16.98</v>
+        <v>0.81</v>
       </c>
       <c r="K44">
-        <v>9850</v>
+        <v>7663</v>
       </c>
       <c r="L44" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="M44" t="s">
-        <v>363</v>
+        <v>497</v>
       </c>
       <c r="N44" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="O44" t="s">
         <v>30</v>
@@ -4451,19 +4460,19 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>364</v>
+        <v>546</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>323</v>
       </c>
       <c r="C45" t="s">
-        <v>365</v>
+        <v>547</v>
       </c>
       <c r="D45" t="s">
-        <v>366</v>
+        <v>548</v>
       </c>
       <c r="E45" t="s">
-        <v>367</v>
+        <v>549</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
@@ -4472,22 +4481,22 @@
         <v>20</v>
       </c>
       <c r="H45">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I45">
-        <v>0.13300000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="J45" s="1">
-        <v>1.59</v>
+        <v>2.04</v>
       </c>
       <c r="K45">
-        <v>85601</v>
+        <v>260340</v>
       </c>
       <c r="L45" t="s">
-        <v>58</v>
+        <v>315</v>
       </c>
       <c r="M45" t="s">
-        <v>368</v>
+        <v>550</v>
       </c>
       <c r="N45" t="s">
         <v>22</v>
@@ -4500,44 +4509,44 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>369</v>
+      <c r="A46">
+        <v>31.8201</v>
       </c>
       <c r="B46" t="s">
-        <v>370</v>
+        <v>579</v>
       </c>
       <c r="C46" t="s">
-        <v>371</v>
+        <v>580</v>
       </c>
       <c r="D46" t="s">
-        <v>372</v>
+        <v>581</v>
       </c>
       <c r="E46" t="s">
-        <v>373</v>
+        <v>582</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G46" t="s">
         <v>20</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>0.34</v>
+        <v>0.91</v>
       </c>
       <c r="J46" s="1">
-        <v>1.02</v>
+        <v>0.91</v>
       </c>
       <c r="K46">
-        <v>91338</v>
+        <v>44185</v>
       </c>
       <c r="L46" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="M46" t="s">
-        <v>374</v>
+        <v>583</v>
       </c>
       <c r="N46" t="s">
         <v>22</v>
@@ -4551,22 +4560,22 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>375</v>
+        <v>584</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>266</v>
       </c>
       <c r="C47" t="s">
-        <v>376</v>
+        <v>585</v>
       </c>
       <c r="D47" t="s">
-        <v>377</v>
+        <v>586</v>
       </c>
       <c r="E47" t="s">
-        <v>76</v>
+        <v>582</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G47" t="s">
         <v>20</v>
@@ -4575,19 +4584,19 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <v>1.62</v>
+        <v>0.43</v>
       </c>
       <c r="J47" s="1">
-        <v>1.62</v>
+        <v>0.43</v>
       </c>
       <c r="K47">
-        <v>3519</v>
+        <v>2606</v>
       </c>
       <c r="L47" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="M47" t="s">
-        <v>378</v>
+        <v>587</v>
       </c>
       <c r="N47" t="s">
         <v>22</v>
@@ -4596,101 +4605,95 @@
         <v>30</v>
       </c>
       <c r="P47" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>267</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>268</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>269</v>
       </c>
       <c r="E48" t="s">
-        <v>142</v>
+        <v>270</v>
       </c>
       <c r="F48" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="G48" t="s">
         <v>20</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>3.05</v>
+        <v>1.92</v>
       </c>
       <c r="J48" s="1">
-        <v>3.05</v>
+        <v>5.76</v>
       </c>
       <c r="K48">
+        <v>986</v>
+      </c>
+      <c r="L48" t="s">
+        <v>71</v>
+      </c>
+      <c r="M48" t="s">
+        <v>271</v>
+      </c>
+      <c r="N48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O48" t="s">
+        <v>30</v>
+      </c>
+      <c r="P48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>532</v>
+      </c>
+      <c r="B49" t="s">
+        <v>533</v>
+      </c>
+      <c r="C49" t="s">
         <v>534</v>
       </c>
-      <c r="L48" t="s">
-        <v>21</v>
-      </c>
-      <c r="M48" t="s">
-        <v>143</v>
-      </c>
-      <c r="N48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O48" t="s">
-        <v>30</v>
-      </c>
-      <c r="P48" t="s">
-        <v>31</v>
-      </c>
-      <c r="R48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>824500500</v>
-      </c>
-      <c r="B49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" t="s">
-        <v>144</v>
-      </c>
       <c r="D49" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" t="s">
-        <v>146</v>
+        <v>616</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G49" t="s">
         <v>20</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>0.27</v>
+        <v>0.48</v>
       </c>
       <c r="J49" s="1">
-        <v>0.54</v>
+        <v>1.92</v>
       </c>
       <c r="K49">
-        <v>184</v>
+        <v>4315</v>
       </c>
       <c r="L49" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="M49" t="s">
-        <v>148</v>
+        <v>535</v>
       </c>
       <c r="N49" t="s">
         <v>22</v>
@@ -4700,50 +4703,44 @@
       </c>
       <c r="P49" t="s">
         <v>31</v>
-      </c>
-      <c r="R49">
-        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>379</v>
+        <v>528</v>
       </c>
       <c r="B50" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
       <c r="C50" t="s">
-        <v>381</v>
+        <v>530</v>
       </c>
       <c r="D50" t="s">
-        <v>382</v>
-      </c>
-      <c r="E50" t="s">
-        <v>383</v>
+        <v>615</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G50" t="s">
         <v>20</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I50">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="J50" s="1">
-        <v>1.05</v>
+        <v>1.36</v>
       </c>
       <c r="K50">
-        <v>597</v>
+        <v>3694</v>
       </c>
       <c r="L50" t="s">
-        <v>154</v>
+        <v>480</v>
       </c>
       <c r="M50" t="s">
-        <v>384</v>
+        <v>531</v>
       </c>
       <c r="N50" t="s">
         <v>22</v>
@@ -4757,22 +4754,22 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>385</v>
+        <v>247</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="C51" t="s">
-        <v>386</v>
+        <v>249</v>
       </c>
       <c r="D51" t="s">
-        <v>387</v>
+        <v>250</v>
       </c>
       <c r="E51" t="s">
-        <v>388</v>
+        <v>251</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="G51" t="s">
         <v>20</v>
@@ -4781,19 +4778,19 @@
         <v>3</v>
       </c>
       <c r="I51">
-        <v>6.97</v>
+        <v>24.1</v>
       </c>
       <c r="J51" s="1">
-        <v>20.91</v>
+        <v>72.3</v>
       </c>
       <c r="K51">
-        <v>1576</v>
+        <v>79</v>
       </c>
       <c r="L51" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="M51" t="s">
-        <v>389</v>
+        <v>252</v>
       </c>
       <c r="N51" t="s">
         <v>22</v>
@@ -4807,19 +4804,19 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>390</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>391</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>392</v>
+        <v>26</v>
       </c>
       <c r="E52" t="s">
-        <v>393</v>
+        <v>27</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
@@ -4828,22 +4825,22 @@
         <v>20</v>
       </c>
       <c r="H52">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I52">
-        <v>0.16300000000000001</v>
+        <v>4.08</v>
       </c>
       <c r="J52" s="1">
-        <v>5.37</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="K52">
-        <v>29834</v>
+        <v>4787</v>
       </c>
       <c r="L52" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="M52" t="s">
-        <v>394</v>
+        <v>29</v>
       </c>
       <c r="N52" t="s">
         <v>22</v>
@@ -4857,19 +4854,19 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="D53" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="E53" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
@@ -4878,22 +4875,22 @@
         <v>20</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>0.1</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J53" s="1">
-        <v>0.2</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K53">
-        <v>21137</v>
+        <v>4383</v>
       </c>
       <c r="L53" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="M53" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="N53" t="s">
         <v>22</v>
@@ -4907,19 +4904,19 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>400</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>401</v>
+        <v>74</v>
       </c>
       <c r="D54" t="s">
-        <v>402</v>
+        <v>75</v>
       </c>
       <c r="E54" t="s">
-        <v>403</v>
+        <v>76</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
@@ -4928,22 +4925,22 @@
         <v>20</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
       <c r="J54" s="1">
-        <v>1.2</v>
+        <v>0.53</v>
       </c>
       <c r="K54">
-        <v>16463</v>
+        <v>3437</v>
       </c>
       <c r="L54" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="M54" t="s">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="N54" t="s">
         <v>22</v>
@@ -4953,47 +4950,50 @@
       </c>
       <c r="P54" t="s">
         <v>31</v>
+      </c>
+      <c r="R54">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>405</v>
+        <v>482</v>
       </c>
       <c r="B55" t="s">
-        <v>370</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>406</v>
+        <v>483</v>
       </c>
       <c r="D55" t="s">
-        <v>407</v>
+        <v>484</v>
       </c>
       <c r="E55" t="s">
-        <v>408</v>
+        <v>328</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="G55" t="s">
         <v>20</v>
       </c>
       <c r="H55">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>0.22</v>
+        <v>17.72</v>
       </c>
       <c r="J55" s="1">
-        <v>1.32</v>
+        <v>17.72</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="L55" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="M55" t="s">
-        <v>409</v>
+        <v>485</v>
       </c>
       <c r="N55" t="s">
         <v>22</v>
@@ -5007,19 +5007,19 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>410</v>
+        <v>37</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>411</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>412</v>
+        <v>39</v>
       </c>
       <c r="E56" t="s">
-        <v>413</v>
+        <v>40</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
@@ -5028,22 +5028,22 @@
         <v>20</v>
       </c>
       <c r="H56">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>0.1</v>
+        <v>13.08</v>
       </c>
       <c r="J56" s="1">
-        <v>0.6</v>
+        <v>26.16</v>
       </c>
       <c r="K56">
-        <v>25110</v>
+        <v>1099</v>
       </c>
       <c r="L56" t="s">
-        <v>281</v>
+        <v>21</v>
       </c>
       <c r="M56" t="s">
-        <v>414</v>
+        <v>41</v>
       </c>
       <c r="N56" t="s">
         <v>22</v>
@@ -5057,19 +5057,19 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="D57" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E57" t="s">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
@@ -5078,22 +5078,22 @@
         <v>20</v>
       </c>
       <c r="H57">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>0.26</v>
+        <v>1.62</v>
       </c>
       <c r="J57" s="1">
-        <v>5.2</v>
+        <v>1.62</v>
       </c>
       <c r="K57">
-        <v>609132</v>
+        <v>3519</v>
       </c>
       <c r="L57" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="M57" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="N57" t="s">
         <v>22</v>
@@ -5107,19 +5107,19 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>420</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>421</v>
+        <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>422</v>
+        <v>69</v>
       </c>
       <c r="E58" t="s">
-        <v>234</v>
+        <v>70</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
@@ -5131,19 +5131,19 @@
         <v>2</v>
       </c>
       <c r="I58">
-        <v>0.1</v>
+        <v>0.48</v>
       </c>
       <c r="J58" s="1">
-        <v>0.2</v>
+        <v>0.96</v>
       </c>
       <c r="K58">
-        <v>5709</v>
+        <v>6638</v>
       </c>
       <c r="L58" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="M58" t="s">
-        <v>423</v>
+        <v>72</v>
       </c>
       <c r="N58" t="s">
         <v>22</v>
@@ -5153,23 +5153,26 @@
       </c>
       <c r="P58" t="s">
         <v>31</v>
+      </c>
+      <c r="R58">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>254</v>
+        <v>385</v>
       </c>
       <c r="B59" t="s">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>256</v>
+        <v>386</v>
       </c>
       <c r="D59" t="s">
-        <v>257</v>
+        <v>387</v>
       </c>
       <c r="E59" t="s">
-        <v>258</v>
+        <v>388</v>
       </c>
       <c r="F59" t="s">
         <v>19</v>
@@ -5178,25 +5181,25 @@
         <v>20</v>
       </c>
       <c r="H59">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I59">
-        <v>0.18</v>
+        <v>6.97</v>
       </c>
       <c r="J59" s="1">
-        <v>1.44</v>
+        <v>20.91</v>
       </c>
       <c r="K59">
-        <v>337475</v>
+        <v>1576</v>
       </c>
       <c r="L59" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="M59" t="s">
-        <v>259</v>
+        <v>389</v>
       </c>
       <c r="N59" t="s">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="O59" t="s">
         <v>30</v>
@@ -5207,19 +5210,19 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>424</v>
+        <v>289</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>425</v>
+        <v>290</v>
       </c>
       <c r="D60" t="s">
-        <v>426</v>
+        <v>291</v>
       </c>
       <c r="E60" t="s">
-        <v>427</v>
+        <v>27</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
@@ -5228,22 +5231,22 @@
         <v>20</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>0.1</v>
+        <v>3.07</v>
       </c>
       <c r="J60" s="1">
-        <v>0.2</v>
+        <v>3.07</v>
       </c>
       <c r="K60">
-        <v>4026</v>
+        <v>6950</v>
       </c>
       <c r="L60" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="M60" t="s">
-        <v>428</v>
+        <v>292</v>
       </c>
       <c r="N60" t="s">
         <v>22</v>
@@ -5257,43 +5260,43 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="D61" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="E61" t="s">
-        <v>432</v>
+        <v>76</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="G61" t="s">
         <v>20</v>
       </c>
       <c r="H61">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="J61" s="1">
-        <v>1.86</v>
+        <v>3.08</v>
       </c>
       <c r="K61">
-        <v>3810</v>
+        <v>1046</v>
       </c>
       <c r="L61" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="M61" t="s">
-        <v>433</v>
+        <v>292</v>
       </c>
       <c r="N61" t="s">
         <v>22</v>
@@ -5307,19 +5310,19 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>434</v>
+        <v>618</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>435</v>
+        <v>617</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="E62" t="s">
-        <v>436</v>
+        <v>18</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
@@ -5328,72 +5331,72 @@
         <v>20</v>
       </c>
       <c r="H62">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I62">
-        <v>0.1</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="J62" s="1">
-        <v>0.8</v>
+        <v>21.55</v>
       </c>
       <c r="K62">
-        <v>621947</v>
+        <v>2495</v>
       </c>
       <c r="L62" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="M62" t="s">
-        <v>437</v>
+        <v>287</v>
       </c>
       <c r="N62" t="s">
         <v>22</v>
       </c>
       <c r="O62" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P62" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>438</v>
+        <v>283</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="C63" t="s">
-        <v>439</v>
+        <v>284</v>
       </c>
       <c r="D63" t="s">
-        <v>440</v>
+        <v>285</v>
       </c>
       <c r="E63" t="s">
-        <v>441</v>
+        <v>286</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="G63" t="s">
         <v>20</v>
       </c>
       <c r="H63">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>0.1</v>
+        <v>8.19</v>
       </c>
       <c r="J63" s="1">
-        <v>0.8</v>
+        <v>24.57</v>
       </c>
       <c r="K63">
-        <v>27789</v>
+        <v>111</v>
       </c>
       <c r="L63" t="s">
-        <v>281</v>
+        <v>71</v>
       </c>
       <c r="M63" t="s">
-        <v>442</v>
+        <v>287</v>
       </c>
       <c r="N63" t="s">
         <v>22</v>
@@ -5407,43 +5410,43 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>443</v>
+        <v>305</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>444</v>
+        <v>306</v>
       </c>
       <c r="D64" t="s">
-        <v>445</v>
+        <v>307</v>
       </c>
       <c r="E64" t="s">
-        <v>446</v>
+        <v>308</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="G64" t="s">
         <v>20</v>
       </c>
       <c r="H64">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>5.6000000000000001E-2</v>
+        <v>2.86</v>
       </c>
       <c r="J64" s="1">
-        <v>0.67</v>
+        <v>5.72</v>
       </c>
       <c r="K64">
-        <v>7272</v>
+        <v>168</v>
       </c>
       <c r="L64" t="s">
-        <v>281</v>
+        <v>21</v>
       </c>
       <c r="M64" t="s">
-        <v>447</v>
+        <v>309</v>
       </c>
       <c r="N64" t="s">
         <v>22</v>
@@ -5457,43 +5460,43 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E65" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="G65" t="s">
         <v>20</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>0.1</v>
+        <v>3.05</v>
       </c>
       <c r="J65" s="1">
-        <v>0.4</v>
+        <v>3.05</v>
       </c>
       <c r="K65">
-        <v>54094</v>
+        <v>534</v>
       </c>
       <c r="L65" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="M65" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="N65" t="s">
         <v>22</v>
@@ -5505,45 +5508,48 @@
         <v>31</v>
       </c>
       <c r="R65">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D66" t="s">
-        <v>228</v>
+        <v>117</v>
+      </c>
+      <c r="E66" t="s">
+        <v>118</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="G66" t="s">
         <v>20</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>0.31</v>
+        <v>0.66</v>
       </c>
       <c r="J66" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="K66" t="s">
-        <v>229</v>
+        <v>0.66</v>
+      </c>
+      <c r="K66">
+        <v>546</v>
       </c>
       <c r="L66" t="s">
         <v>95</v>
       </c>
       <c r="M66" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="N66" t="s">
         <v>22</v>
@@ -5555,24 +5561,24 @@
         <v>31</v>
       </c>
       <c r="R66">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>448</v>
+        <v>48</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>449</v>
+        <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="E67" t="s">
-        <v>451</v>
+        <v>51</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
@@ -5581,22 +5587,22 @@
         <v>20</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0.31</v>
+        <v>1.58</v>
       </c>
       <c r="J67" s="1">
-        <v>0.93</v>
+        <v>1.58</v>
       </c>
       <c r="K67">
-        <v>5137</v>
+        <v>1713</v>
       </c>
       <c r="L67" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="M67" t="s">
-        <v>452</v>
+        <v>52</v>
       </c>
       <c r="N67" t="s">
         <v>22</v>
@@ -5610,19 +5616,19 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="C68" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="D68" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="E68" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
@@ -5631,22 +5637,22 @@
         <v>20</v>
       </c>
       <c r="H68">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="J68" s="1">
-        <v>4.26</v>
+        <v>0.64</v>
       </c>
       <c r="K68">
-        <v>9451</v>
+        <v>2266</v>
       </c>
       <c r="L68" t="s">
-        <v>315</v>
+        <v>480</v>
       </c>
       <c r="M68" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="N68" t="s">
         <v>22</v>
@@ -5660,43 +5666,43 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>261</v>
+        <v>486</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s">
-        <v>262</v>
+        <v>487</v>
       </c>
       <c r="D69" t="s">
-        <v>263</v>
+        <v>611</v>
       </c>
       <c r="E69" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="G69" t="s">
         <v>20</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0.95</v>
+        <v>0.66</v>
       </c>
       <c r="J69" s="1">
-        <v>2.85</v>
+        <v>0.66</v>
       </c>
       <c r="K69">
-        <v>4719</v>
+        <v>822</v>
       </c>
       <c r="L69" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="M69" t="s">
-        <v>265</v>
+        <v>488</v>
       </c>
       <c r="N69" t="s">
         <v>22</v>
@@ -5710,43 +5716,43 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>267</v>
+        <v>121</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
-        <v>268</v>
+        <v>123</v>
       </c>
       <c r="D70" t="s">
-        <v>269</v>
+        <v>124</v>
       </c>
       <c r="E70" t="s">
-        <v>270</v>
+        <v>125</v>
       </c>
       <c r="F70" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="G70" t="s">
         <v>20</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1.92</v>
+        <v>0.45</v>
       </c>
       <c r="J70" s="1">
-        <v>5.76</v>
+        <v>0.45</v>
       </c>
       <c r="K70">
-        <v>986</v>
+        <v>6056</v>
       </c>
       <c r="L70" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="M70" t="s">
-        <v>271</v>
+        <v>127</v>
       </c>
       <c r="N70" t="s">
         <v>22</v>
@@ -5756,47 +5762,50 @@
       </c>
       <c r="P70" t="s">
         <v>31</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>510</v>
+        <v>468</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>469</v>
       </c>
       <c r="C71" t="s">
-        <v>511</v>
+        <v>470</v>
       </c>
       <c r="D71" t="s">
-        <v>274</v>
+        <v>471</v>
       </c>
       <c r="E71" t="s">
-        <v>299</v>
+        <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="G71" t="s">
         <v>20</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>0.1</v>
+        <v>3.97</v>
       </c>
       <c r="J71" s="1">
-        <v>0.3</v>
+        <v>3.97</v>
       </c>
       <c r="K71">
-        <v>69959</v>
+        <v>1711</v>
       </c>
       <c r="L71" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="M71" t="s">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="N71" t="s">
         <v>22</v>
@@ -5810,19 +5819,19 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>521</v>
       </c>
       <c r="B72" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>522</v>
       </c>
       <c r="D72" t="s">
-        <v>274</v>
+        <v>614</v>
       </c>
       <c r="E72" t="s">
-        <v>153</v>
+        <v>383</v>
       </c>
       <c r="F72" t="s">
         <v>19</v>
@@ -5831,22 +5840,22 @@
         <v>20</v>
       </c>
       <c r="H72">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="I72">
-        <v>7.1999999999999995E-2</v>
+        <v>0.18</v>
       </c>
       <c r="J72" s="1">
-        <v>1.22</v>
+        <v>0.72</v>
       </c>
       <c r="K72">
-        <v>81933</v>
+        <v>1261</v>
       </c>
       <c r="L72" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="M72" t="s">
-        <v>155</v>
+        <v>523</v>
       </c>
       <c r="N72" t="s">
         <v>22</v>
@@ -5855,24 +5864,24 @@
         <v>30</v>
       </c>
       <c r="P72" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B73" t="s">
-        <v>253</v>
+        <v>311</v>
       </c>
       <c r="C73" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="D73" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="E73" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
@@ -5881,22 +5890,22 @@
         <v>20</v>
       </c>
       <c r="H73">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>0.17599999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="J73" s="1">
-        <v>4.57</v>
+        <v>0.34</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>68109</v>
       </c>
       <c r="L73" t="s">
-        <v>132</v>
+        <v>315</v>
       </c>
       <c r="M73" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="N73" t="s">
         <v>22</v>
@@ -5905,33 +5914,27 @@
         <v>30</v>
       </c>
       <c r="P73" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>620</v>
-      </c>
-      <c r="R73">
-        <v>97</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>457</v>
+        <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>458</v>
+        <v>157</v>
       </c>
       <c r="C74" t="s">
-        <v>459</v>
+        <v>168</v>
       </c>
       <c r="D74" t="s">
-        <v>460</v>
+        <v>169</v>
       </c>
       <c r="E74" t="s">
-        <v>461</v>
+        <v>170</v>
       </c>
       <c r="F74" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="G74" t="s">
         <v>20</v>
@@ -5940,45 +5943,48 @@
         <v>2</v>
       </c>
       <c r="I74">
-        <v>7.04</v>
+        <v>0.1</v>
       </c>
       <c r="J74" s="1">
-        <v>14.08</v>
+        <v>0.2</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>1313728</v>
       </c>
       <c r="L74" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="M74" t="s">
-        <v>462</v>
+        <v>172</v>
       </c>
       <c r="N74" t="s">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="O74" t="s">
         <v>30</v>
       </c>
       <c r="P74" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="R74">
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="C75" t="s">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="D75" t="s">
-        <v>165</v>
+        <v>279</v>
       </c>
       <c r="E75" t="s">
-        <v>578</v>
+        <v>280</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
@@ -5987,22 +5993,22 @@
         <v>20</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>0.2</v>
+        <v>0.46</v>
       </c>
       <c r="J75" s="1">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="K75">
-        <v>1133837</v>
+        <v>26715</v>
       </c>
       <c r="L75" t="s">
-        <v>71</v>
+        <v>281</v>
       </c>
       <c r="M75" t="s">
-        <v>166</v>
+        <v>282</v>
       </c>
       <c r="N75" t="s">
         <v>22</v>
@@ -6012,26 +6018,23 @@
       </c>
       <c r="P75" t="s">
         <v>31</v>
-      </c>
-      <c r="R75">
-        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="C76" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="D76" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="E76" t="s">
-        <v>329</v>
+        <v>516</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
@@ -6043,19 +6046,19 @@
         <v>3</v>
       </c>
       <c r="I76">
-        <v>1.06</v>
+        <v>0.1</v>
       </c>
       <c r="J76" s="1">
-        <v>3.18</v>
+        <v>0.3</v>
       </c>
       <c r="K76">
-        <v>189701</v>
+        <v>59029</v>
       </c>
       <c r="L76" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="M76" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="N76" t="s">
         <v>22</v>
@@ -6069,19 +6072,16 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="B77" t="s">
         <v>157</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="D77" t="s">
-        <v>169</v>
-      </c>
-      <c r="E77" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -6090,22 +6090,22 @@
         <v>20</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>0.1</v>
       </c>
       <c r="J77" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="K77">
-        <v>1313728</v>
+        <v>0.1</v>
+      </c>
+      <c r="K77" t="s">
+        <v>208</v>
       </c>
       <c r="L77" t="s">
         <v>171</v>
       </c>
       <c r="M77" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="N77" t="s">
         <v>22</v>
@@ -6115,26 +6115,23 @@
       </c>
       <c r="P77" t="s">
         <v>31</v>
-      </c>
-      <c r="R77">
-        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="B78" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="C78" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="D78" t="s">
-        <v>495</v>
+        <v>274</v>
       </c>
       <c r="E78" t="s">
-        <v>496</v>
+        <v>299</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -6143,25 +6140,25 @@
         <v>20</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I78">
-        <v>0.81</v>
+        <v>0.1</v>
       </c>
       <c r="J78" s="1">
-        <v>0.81</v>
+        <v>0.3</v>
       </c>
       <c r="K78">
-        <v>7663</v>
+        <v>69959</v>
       </c>
       <c r="L78" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="M78" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="N78" t="s">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="O78" t="s">
         <v>30</v>
@@ -6172,19 +6169,19 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>498</v>
+        <v>178</v>
       </c>
       <c r="B79" t="s">
         <v>157</v>
       </c>
       <c r="C79" t="s">
-        <v>499</v>
+        <v>179</v>
       </c>
       <c r="D79" t="s">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="E79" t="s">
-        <v>501</v>
+        <v>181</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -6193,22 +6190,22 @@
         <v>20</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I79">
         <v>0.1</v>
       </c>
       <c r="J79" s="1">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K79">
-        <v>7306</v>
+        <v>241826</v>
       </c>
       <c r="L79" t="s">
         <v>161</v>
       </c>
       <c r="M79" t="s">
-        <v>502</v>
+        <v>182</v>
       </c>
       <c r="N79" t="s">
         <v>22</v>
@@ -6218,23 +6215,23 @@
       </c>
       <c r="P79" t="s">
         <v>31</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="C80" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D80" t="s">
-        <v>175</v>
-      </c>
-      <c r="E80" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -6243,22 +6240,22 @@
         <v>20</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>0.1</v>
       </c>
       <c r="J80" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="K80">
-        <v>446502</v>
+        <v>0.2</v>
+      </c>
+      <c r="K80" t="s">
+        <v>203</v>
       </c>
       <c r="L80" t="s">
         <v>161</v>
       </c>
       <c r="M80" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="N80" t="s">
         <v>22</v>
@@ -6270,27 +6267,27 @@
         <v>31</v>
       </c>
       <c r="R80">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>503</v>
+        <v>293</v>
       </c>
       <c r="B81" t="s">
-        <v>504</v>
+        <v>294</v>
       </c>
       <c r="C81" t="s">
-        <v>505</v>
+        <v>295</v>
       </c>
       <c r="D81" t="s">
-        <v>506</v>
+        <v>296</v>
       </c>
       <c r="E81" t="s">
-        <v>507</v>
+        <v>297</v>
       </c>
       <c r="F81" t="s">
-        <v>508</v>
+        <v>19</v>
       </c>
       <c r="G81" t="s">
         <v>20</v>
@@ -6299,22 +6296,22 @@
         <v>1</v>
       </c>
       <c r="I81">
-        <v>12.47</v>
+        <v>0.1</v>
       </c>
       <c r="J81" s="1">
-        <v>12.47</v>
+        <v>0.1</v>
       </c>
       <c r="K81">
-        <v>160</v>
+        <v>17890</v>
       </c>
       <c r="L81" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M81" t="s">
-        <v>509</v>
+        <v>298</v>
       </c>
       <c r="N81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O81" t="s">
         <v>30</v>
@@ -6325,69 +6322,72 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>463</v>
+        <v>156</v>
       </c>
       <c r="B82" t="s">
-        <v>458</v>
+        <v>157</v>
       </c>
       <c r="C82" t="s">
-        <v>464</v>
+        <v>158</v>
       </c>
       <c r="D82" t="s">
-        <v>465</v>
+        <v>159</v>
       </c>
       <c r="E82" t="s">
-        <v>466</v>
+        <v>160</v>
       </c>
       <c r="F82" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="G82" t="s">
         <v>20</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>1.08</v>
+        <v>0.1</v>
       </c>
       <c r="J82" s="1">
-        <v>5.4</v>
+        <v>0.4</v>
       </c>
       <c r="K82">
-        <v>1574</v>
+        <v>54094</v>
       </c>
       <c r="L82" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="M82" t="s">
-        <v>467</v>
+        <v>162</v>
       </c>
       <c r="N82" t="s">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="O82" t="s">
         <v>30</v>
       </c>
       <c r="P82" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="R82">
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="C83" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="D83" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="E83" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -6399,19 +6399,19 @@
         <v>4</v>
       </c>
       <c r="I83">
-        <v>0.1</v>
+        <v>0.31</v>
       </c>
       <c r="J83" s="1">
-        <v>0.4</v>
+        <v>1.24</v>
       </c>
       <c r="K83">
-        <v>241826</v>
+        <v>49880</v>
       </c>
       <c r="L83" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="M83" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="N83" t="s">
         <v>22</v>
@@ -6423,24 +6423,24 @@
         <v>31</v>
       </c>
       <c r="R83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>66</v>
+        <v>424</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="C84" t="s">
-        <v>68</v>
+        <v>425</v>
       </c>
       <c r="D84" t="s">
-        <v>69</v>
+        <v>426</v>
       </c>
       <c r="E84" t="s">
-        <v>70</v>
+        <v>427</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -6452,19 +6452,19 @@
         <v>2</v>
       </c>
       <c r="I84">
-        <v>0.48</v>
+        <v>0.1</v>
       </c>
       <c r="J84" s="1">
-        <v>0.96</v>
+        <v>0.2</v>
       </c>
       <c r="K84">
-        <v>6638</v>
+        <v>4026</v>
       </c>
       <c r="L84" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="M84" t="s">
-        <v>72</v>
+        <v>428</v>
       </c>
       <c r="N84" t="s">
         <v>22</v>
@@ -6474,23 +6474,23 @@
       </c>
       <c r="P84" t="s">
         <v>31</v>
-      </c>
-      <c r="R84">
-        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>200</v>
+        <v>434</v>
       </c>
       <c r="B85" t="s">
         <v>157</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
+        <v>435</v>
       </c>
       <c r="D85" t="s">
-        <v>202</v>
+        <v>152</v>
+      </c>
+      <c r="E85" t="s">
+        <v>436</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
@@ -6499,22 +6499,22 @@
         <v>20</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I85">
         <v>0.1</v>
       </c>
       <c r="J85" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="K85" t="s">
-        <v>203</v>
+        <v>0.8</v>
+      </c>
+      <c r="K85">
+        <v>621947</v>
       </c>
       <c r="L85" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="M85" t="s">
-        <v>204</v>
+        <v>437</v>
       </c>
       <c r="N85" t="s">
         <v>22</v>
@@ -6524,26 +6524,23 @@
       </c>
       <c r="P85" t="s">
         <v>31</v>
-      </c>
-      <c r="R85">
-        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>513</v>
+        <v>420</v>
       </c>
       <c r="B86" t="s">
         <v>157</v>
       </c>
       <c r="C86" t="s">
-        <v>514</v>
+        <v>421</v>
       </c>
       <c r="D86" t="s">
-        <v>515</v>
+        <v>422</v>
       </c>
       <c r="E86" t="s">
-        <v>516</v>
+        <v>234</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
@@ -6552,22 +6549,22 @@
         <v>20</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86">
         <v>0.1</v>
       </c>
       <c r="J86" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K86">
-        <v>59029</v>
+        <v>5709</v>
       </c>
       <c r="L86" t="s">
         <v>161</v>
       </c>
       <c r="M86" t="s">
-        <v>517</v>
+        <v>423</v>
       </c>
       <c r="N86" t="s">
         <v>22</v>
@@ -6630,20 +6627,20 @@
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>74279220181</v>
+      <c r="A88" t="s">
+        <v>498</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="C88" t="s">
-        <v>61</v>
+        <v>499</v>
       </c>
       <c r="D88" t="s">
-        <v>62</v>
+        <v>500</v>
       </c>
       <c r="E88" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
@@ -6652,22 +6649,22 @@
         <v>20</v>
       </c>
       <c r="H88">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="J88" s="1">
-        <v>1.92</v>
+        <v>0.1</v>
       </c>
       <c r="K88">
-        <v>4667</v>
+        <v>7306</v>
       </c>
       <c r="L88" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="M88" t="s">
-        <v>65</v>
+        <v>502</v>
       </c>
       <c r="N88" t="s">
         <v>22</v>
@@ -6677,26 +6674,20 @@
       </c>
       <c r="P88" t="s">
         <v>31</v>
-      </c>
-      <c r="R88">
-        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>521</v>
+        <v>217</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>211</v>
       </c>
       <c r="C89" t="s">
-        <v>522</v>
+        <v>218</v>
       </c>
       <c r="D89" t="s">
-        <v>614</v>
-      </c>
-      <c r="E89" t="s">
-        <v>383</v>
+        <v>219</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -6705,22 +6696,22 @@
         <v>20</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I89">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="J89" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="K89">
-        <v>1261</v>
+        <v>1.28</v>
+      </c>
+      <c r="K89" t="s">
+        <v>220</v>
       </c>
       <c r="L89" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="M89" t="s">
-        <v>523</v>
+        <v>221</v>
       </c>
       <c r="N89" t="s">
         <v>22</v>
@@ -6734,43 +6725,40 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>524</v>
+        <v>222</v>
       </c>
       <c r="B90" t="s">
-        <v>525</v>
+        <v>157</v>
       </c>
       <c r="C90" t="s">
-        <v>526</v>
+        <v>223</v>
       </c>
       <c r="D90" t="s">
-        <v>613</v>
-      </c>
-      <c r="E90" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="F90" t="s">
-        <v>362</v>
+        <v>19</v>
       </c>
       <c r="G90" t="s">
         <v>20</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>1.28</v>
+        <v>0.1</v>
       </c>
       <c r="J90" s="1">
-        <v>2.56</v>
+        <v>0.1</v>
       </c>
       <c r="K90">
-        <v>1702</v>
+        <v>6847</v>
       </c>
       <c r="L90" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="M90" t="s">
-        <v>527</v>
+        <v>225</v>
       </c>
       <c r="N90" t="s">
         <v>22</v>
@@ -6784,40 +6772,43 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>528</v>
+        <v>78</v>
       </c>
       <c r="B91" t="s">
-        <v>529</v>
+        <v>79</v>
       </c>
       <c r="C91" t="s">
-        <v>530</v>
+        <v>80</v>
       </c>
       <c r="D91" t="s">
-        <v>615</v>
+        <v>81</v>
+      </c>
+      <c r="E91" t="s">
+        <v>82</v>
       </c>
       <c r="F91" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="G91" t="s">
         <v>20</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
       <c r="J91" s="1">
-        <v>1.36</v>
+        <v>0.3</v>
       </c>
       <c r="K91">
-        <v>3694</v>
+        <v>1318</v>
       </c>
       <c r="L91" t="s">
-        <v>480</v>
+        <v>28</v>
       </c>
       <c r="M91" t="s">
-        <v>531</v>
+        <v>83</v>
       </c>
       <c r="N91" t="s">
         <v>22</v>
@@ -6827,47 +6818,50 @@
       </c>
       <c r="P91" t="s">
         <v>31</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>468</v>
+        <v>149</v>
       </c>
       <c r="B92" t="s">
-        <v>469</v>
+        <v>150</v>
       </c>
       <c r="C92" t="s">
-        <v>470</v>
+        <v>151</v>
       </c>
       <c r="D92" t="s">
-        <v>471</v>
+        <v>274</v>
       </c>
       <c r="E92" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="F92" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="G92" t="s">
         <v>20</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I92">
-        <v>3.97</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="J92" s="1">
-        <v>3.97</v>
+        <v>1.22</v>
       </c>
       <c r="K92">
-        <v>1711</v>
+        <v>81933</v>
       </c>
       <c r="L92" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="M92" t="s">
-        <v>472</v>
+        <v>155</v>
       </c>
       <c r="N92" t="s">
         <v>22</v>
@@ -6881,40 +6875,43 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>532</v>
+        <v>272</v>
       </c>
       <c r="B93" t="s">
-        <v>533</v>
+        <v>253</v>
       </c>
       <c r="C93" t="s">
-        <v>534</v>
+        <v>273</v>
       </c>
       <c r="D93" t="s">
-        <v>616</v>
+        <v>274</v>
+      </c>
+      <c r="E93" t="s">
+        <v>275</v>
       </c>
       <c r="F93" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="G93" t="s">
         <v>20</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I93">
-        <v>0.48</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="J93" s="1">
-        <v>1.92</v>
+        <v>4.57</v>
       </c>
       <c r="K93">
-        <v>4315</v>
+        <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="M93" t="s">
-        <v>535</v>
+        <v>276</v>
       </c>
       <c r="N93" t="s">
         <v>22</v>
@@ -6923,48 +6920,54 @@
         <v>30</v>
       </c>
       <c r="P93" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>620</v>
+      </c>
+      <c r="R93">
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C94" t="s">
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="D94" t="s">
-        <v>475</v>
+        <v>431</v>
       </c>
       <c r="E94" t="s">
-        <v>76</v>
+        <v>432</v>
       </c>
       <c r="F94" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="G94" t="s">
         <v>20</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I94">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="J94" s="1">
-        <v>3.08</v>
+        <v>1.86</v>
       </c>
       <c r="K94">
-        <v>1046</v>
+        <v>3810</v>
       </c>
       <c r="L94" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="M94" t="s">
-        <v>292</v>
+        <v>433</v>
       </c>
       <c r="N94" t="s">
         <v>22</v>
@@ -6978,43 +6981,40 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C95" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="D95" t="s">
-        <v>55</v>
-      </c>
-      <c r="E95" t="s">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="F95" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="G95" t="s">
         <v>20</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>0.91</v>
+        <v>0.31</v>
       </c>
       <c r="J95" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="K95">
-        <v>786</v>
+        <v>0.93</v>
+      </c>
+      <c r="K95" t="s">
+        <v>229</v>
       </c>
       <c r="L95" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="M95" t="s">
-        <v>59</v>
+        <v>230</v>
       </c>
       <c r="N95" t="s">
         <v>22</v>
@@ -7026,24 +7026,24 @@
         <v>31</v>
       </c>
       <c r="R95">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>477</v>
+        <v>597</v>
       </c>
       <c r="B96" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="C96" t="s">
-        <v>478</v>
+        <v>598</v>
       </c>
       <c r="D96" t="s">
-        <v>479</v>
+        <v>599</v>
       </c>
       <c r="E96" t="s">
-        <v>51</v>
+        <v>600</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
@@ -7055,19 +7055,19 @@
         <v>1</v>
       </c>
       <c r="I96">
-        <v>0.64</v>
+        <v>0.1</v>
       </c>
       <c r="J96" s="1">
-        <v>0.64</v>
+        <v>0.1</v>
       </c>
       <c r="K96">
-        <v>2266</v>
+        <v>12098</v>
       </c>
       <c r="L96" t="s">
-        <v>480</v>
+        <v>58</v>
       </c>
       <c r="M96" t="s">
-        <v>481</v>
+        <v>601</v>
       </c>
       <c r="N96" t="s">
         <v>22</v>
@@ -7076,27 +7076,27 @@
         <v>30</v>
       </c>
       <c r="P96" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>482</v>
+        <v>588</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="C97" t="s">
-        <v>483</v>
+        <v>589</v>
       </c>
       <c r="D97" t="s">
-        <v>484</v>
+        <v>590</v>
       </c>
       <c r="E97" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="F97" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="G97" t="s">
         <v>20</v>
@@ -7105,19 +7105,19 @@
         <v>1</v>
       </c>
       <c r="I97">
-        <v>17.72</v>
+        <v>0.1</v>
       </c>
       <c r="J97" s="1">
-        <v>17.72</v>
+        <v>0.1</v>
       </c>
       <c r="K97">
-        <v>977</v>
+        <v>1235</v>
       </c>
       <c r="L97" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="M97" t="s">
-        <v>485</v>
+        <v>591</v>
       </c>
       <c r="N97" t="s">
         <v>22</v>
@@ -7126,48 +7126,48 @@
         <v>30</v>
       </c>
       <c r="P97" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>486</v>
+        <v>415</v>
       </c>
       <c r="B98" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C98" t="s">
-        <v>487</v>
+        <v>416</v>
       </c>
       <c r="D98" t="s">
-        <v>611</v>
+        <v>417</v>
       </c>
       <c r="E98" t="s">
-        <v>327</v>
+        <v>418</v>
       </c>
       <c r="F98" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="G98" t="s">
         <v>20</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I98">
-        <v>0.66</v>
+        <v>0.26</v>
       </c>
       <c r="J98" s="1">
-        <v>0.66</v>
+        <v>5.2</v>
       </c>
       <c r="K98">
-        <v>822</v>
+        <v>609132</v>
       </c>
       <c r="L98" t="s">
         <v>95</v>
       </c>
       <c r="M98" t="s">
-        <v>488</v>
+        <v>419</v>
       </c>
       <c r="N98" t="s">
         <v>22</v>
@@ -7179,21 +7179,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>536</v>
+        <v>443</v>
       </c>
       <c r="B99" t="s">
-        <v>537</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>538</v>
+        <v>444</v>
       </c>
       <c r="D99" t="s">
-        <v>539</v>
+        <v>445</v>
       </c>
       <c r="E99" t="s">
-        <v>540</v>
+        <v>446</v>
       </c>
       <c r="F99" t="s">
         <v>19</v>
@@ -7202,48 +7202,48 @@
         <v>20</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I99">
-        <v>9.27</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="J99" s="1">
-        <v>27.81</v>
+        <v>0.67</v>
       </c>
       <c r="K99">
-        <v>4355</v>
+        <v>7272</v>
       </c>
       <c r="L99" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="M99" t="s">
-        <v>541</v>
+        <v>447</v>
       </c>
       <c r="N99" t="s">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="O99" t="s">
         <v>30</v>
       </c>
       <c r="P99" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>542</v>
+        <v>448</v>
       </c>
       <c r="B100" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C100" t="s">
-        <v>543</v>
+        <v>449</v>
       </c>
       <c r="D100" t="s">
-        <v>544</v>
+        <v>450</v>
       </c>
       <c r="E100" t="s">
-        <v>56</v>
+        <v>451</v>
       </c>
       <c r="F100" t="s">
         <v>19</v>
@@ -7255,19 +7255,19 @@
         <v>3</v>
       </c>
       <c r="I100">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="J100" s="1">
-        <v>0.81</v>
+        <v>0.93</v>
       </c>
       <c r="K100">
-        <v>32779</v>
+        <v>5137</v>
       </c>
       <c r="L100" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="M100" t="s">
-        <v>545</v>
+        <v>452</v>
       </c>
       <c r="N100" t="s">
         <v>22</v>
@@ -7276,24 +7276,24 @@
         <v>30</v>
       </c>
       <c r="P100" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>546</v>
+        <v>602</v>
       </c>
       <c r="B101" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="C101" t="s">
-        <v>547</v>
+        <v>603</v>
       </c>
       <c r="D101" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="E101" t="s">
-        <v>549</v>
+        <v>299</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
@@ -7302,22 +7302,22 @@
         <v>20</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>0.51</v>
+        <v>0.1</v>
       </c>
       <c r="J101" s="1">
-        <v>2.04</v>
+        <v>0.3</v>
       </c>
       <c r="K101">
-        <v>260340</v>
+        <v>26088</v>
       </c>
       <c r="L101" t="s">
-        <v>315</v>
+        <v>58</v>
       </c>
       <c r="M101" t="s">
-        <v>550</v>
+        <v>605</v>
       </c>
       <c r="N101" t="s">
         <v>22</v>
@@ -7329,21 +7329,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>551</v>
+        <v>438</v>
       </c>
       <c r="B102" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>552</v>
+        <v>439</v>
       </c>
       <c r="D102" t="s">
-        <v>553</v>
+        <v>440</v>
       </c>
       <c r="E102" t="s">
-        <v>88</v>
+        <v>441</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -7352,151 +7352,151 @@
         <v>20</v>
       </c>
       <c r="H102">
+        <v>8</v>
+      </c>
+      <c r="I102">
+        <v>0.1</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K102">
+        <v>27789</v>
+      </c>
+      <c r="L102" t="s">
+        <v>281</v>
+      </c>
+      <c r="M102" t="s">
+        <v>442</v>
+      </c>
+      <c r="N102" t="s">
+        <v>22</v>
+      </c>
+      <c r="O102" t="s">
+        <v>30</v>
+      </c>
+      <c r="P102" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>341</v>
+      </c>
+      <c r="B103" t="s">
+        <v>342</v>
+      </c>
+      <c r="C103" t="s">
+        <v>343</v>
+      </c>
+      <c r="D103" t="s">
+        <v>344</v>
+      </c>
+      <c r="E103" t="s">
+        <v>345</v>
+      </c>
+      <c r="F103" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103">
         <v>13</v>
       </c>
-      <c r="I102">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="J102" s="1">
-        <v>5.39</v>
-      </c>
-      <c r="K102">
-        <v>249174</v>
-      </c>
-      <c r="L102" t="s">
-        <v>132</v>
-      </c>
-      <c r="M102" t="s">
-        <v>554</v>
-      </c>
-      <c r="N102" t="s">
-        <v>22</v>
-      </c>
-      <c r="O102" t="s">
-        <v>30</v>
-      </c>
-      <c r="P102" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>555</v>
-      </c>
-      <c r="B103" t="s">
-        <v>33</v>
-      </c>
-      <c r="C103" t="s">
-        <v>556</v>
-      </c>
-      <c r="D103" t="s">
-        <v>557</v>
-      </c>
-      <c r="E103" t="s">
-        <v>329</v>
-      </c>
-      <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s">
-        <v>20</v>
-      </c>
-      <c r="H103">
-        <v>4</v>
-      </c>
       <c r="I103">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="J103" s="1">
+        <v>6.42</v>
+      </c>
+      <c r="K103">
+        <v>7665</v>
+      </c>
+      <c r="L103" t="s">
+        <v>58</v>
+      </c>
+      <c r="M103" t="s">
+        <v>346</v>
+      </c>
+      <c r="N103" t="s">
+        <v>260</v>
+      </c>
+      <c r="O103" t="s">
+        <v>30</v>
+      </c>
+      <c r="P103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>410</v>
+      </c>
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+      <c r="C104" t="s">
+        <v>411</v>
+      </c>
+      <c r="D104" t="s">
+        <v>412</v>
+      </c>
+      <c r="E104" t="s">
+        <v>413</v>
+      </c>
+      <c r="F104" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104">
+        <v>6</v>
+      </c>
+      <c r="I104">
         <v>0.1</v>
       </c>
-      <c r="J103" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="K103">
-        <v>377237</v>
-      </c>
-      <c r="L103" t="s">
-        <v>71</v>
-      </c>
-      <c r="M103" t="s">
-        <v>558</v>
-      </c>
-      <c r="N103" t="s">
-        <v>22</v>
-      </c>
-      <c r="O103" t="s">
-        <v>30</v>
-      </c>
-      <c r="P103" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>559</v>
-      </c>
-      <c r="B104" t="s">
-        <v>43</v>
-      </c>
-      <c r="C104" t="s">
-        <v>560</v>
-      </c>
-      <c r="D104" t="s">
-        <v>561</v>
-      </c>
-      <c r="E104" t="s">
-        <v>562</v>
-      </c>
-      <c r="F104" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" t="s">
-        <v>20</v>
-      </c>
-      <c r="H104">
-        <v>1</v>
-      </c>
-      <c r="I104">
-        <v>0.89</v>
-      </c>
       <c r="J104" s="1">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>25110</v>
       </c>
       <c r="L104" t="s">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c r="M104" t="s">
-        <v>563</v>
+        <v>414</v>
       </c>
       <c r="N104" t="s">
         <v>22</v>
       </c>
       <c r="O104" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P104" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="B105" t="s">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="C105" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="D105" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="E105" t="s">
-        <v>186</v>
+        <v>595</v>
       </c>
       <c r="F105" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="G105" t="s">
         <v>20</v>
@@ -7505,19 +7505,19 @@
         <v>1</v>
       </c>
       <c r="I105">
-        <v>2.39</v>
+        <v>0.1</v>
       </c>
       <c r="J105" s="1">
-        <v>2.39</v>
+        <v>0.1</v>
       </c>
       <c r="K105">
-        <v>1285</v>
+        <v>43713</v>
       </c>
       <c r="L105" t="s">
-        <v>23</v>
+        <v>315</v>
       </c>
       <c r="M105" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
       <c r="N105" t="s">
         <v>22</v>
@@ -7529,24 +7529,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>39293046</v>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>231</v>
       </c>
       <c r="B106" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="C106" t="s">
-        <v>568</v>
+        <v>232</v>
       </c>
       <c r="D106" t="s">
-        <v>569</v>
-      </c>
-      <c r="E106" t="s">
-        <v>361</v>
+        <v>233</v>
       </c>
       <c r="F106" t="s">
-        <v>362</v>
+        <v>19</v>
       </c>
       <c r="G106" t="s">
         <v>20</v>
@@ -7555,119 +7552,113 @@
         <v>1</v>
       </c>
       <c r="I106">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="J106" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K106">
-        <v>4999</v>
+        <v>0.1</v>
+      </c>
+      <c r="K106" t="s">
+        <v>234</v>
       </c>
       <c r="L106" t="s">
+        <v>95</v>
+      </c>
+      <c r="M106" t="s">
+        <v>235</v>
+      </c>
+      <c r="N106" t="s">
+        <v>22</v>
+      </c>
+      <c r="O106" t="s">
+        <v>30</v>
+      </c>
+      <c r="P106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" t="s">
+        <v>212</v>
+      </c>
+      <c r="D107" t="s">
+        <v>213</v>
+      </c>
+      <c r="F107" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107">
+        <v>16</v>
+      </c>
+      <c r="I107">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="J107" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="K107" t="s">
+        <v>214</v>
+      </c>
+      <c r="L107" t="s">
+        <v>215</v>
+      </c>
+      <c r="M107" t="s">
+        <v>216</v>
+      </c>
+      <c r="N107" t="s">
+        <v>22</v>
+      </c>
+      <c r="O107" t="s">
+        <v>30</v>
+      </c>
+      <c r="P107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108" t="s">
+        <v>135</v>
+      </c>
+      <c r="C108" t="s">
+        <v>136</v>
+      </c>
+      <c r="D108" t="s">
+        <v>137</v>
+      </c>
+      <c r="F108" t="s">
+        <v>57</v>
+      </c>
+      <c r="G108" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0.5</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K108">
+        <v>7627</v>
+      </c>
+      <c r="L108" t="s">
         <v>21</v>
       </c>
-      <c r="M106" t="s">
-        <v>570</v>
-      </c>
-      <c r="N106" t="s">
-        <v>22</v>
-      </c>
-      <c r="O106" t="s">
-        <v>30</v>
-      </c>
-      <c r="P106" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>39012040</v>
-      </c>
-      <c r="B107" t="s">
-        <v>183</v>
-      </c>
-      <c r="C107" t="s">
-        <v>571</v>
-      </c>
-      <c r="D107" t="s">
-        <v>572</v>
-      </c>
-      <c r="E107" t="s">
-        <v>361</v>
-      </c>
-      <c r="F107" t="s">
-        <v>57</v>
-      </c>
-      <c r="G107" t="s">
-        <v>20</v>
-      </c>
-      <c r="H107">
-        <v>1</v>
-      </c>
-      <c r="I107">
-        <v>0.31</v>
-      </c>
-      <c r="J107" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="K107">
-        <v>118279</v>
-      </c>
-      <c r="L107" t="s">
-        <v>58</v>
-      </c>
-      <c r="M107" t="s">
-        <v>573</v>
-      </c>
-      <c r="N107" t="s">
-        <v>22</v>
-      </c>
-      <c r="O107" t="s">
-        <v>30</v>
-      </c>
-      <c r="P107" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>39000038</v>
-      </c>
-      <c r="B108" t="s">
-        <v>183</v>
-      </c>
-      <c r="C108" t="s">
-        <v>574</v>
-      </c>
-      <c r="D108" t="s">
-        <v>575</v>
-      </c>
-      <c r="E108" t="s">
-        <v>361</v>
-      </c>
-      <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s">
-        <v>20</v>
-      </c>
-      <c r="H108">
-        <v>4</v>
-      </c>
-      <c r="I108">
-        <v>0.1</v>
-      </c>
-      <c r="J108" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="K108">
-        <v>841804</v>
-      </c>
-      <c r="L108" t="s">
-        <v>576</v>
-      </c>
       <c r="M108" t="s">
-        <v>577</v>
+        <v>138</v>
       </c>
       <c r="N108" t="s">
         <v>22</v>
@@ -7678,25 +7669,28 @@
       <c r="P108" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>31.8201</v>
+      <c r="R108">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>579</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="D109" t="s">
-        <v>581</v>
+        <v>111</v>
       </c>
       <c r="E109" t="s">
-        <v>582</v>
+        <v>317</v>
       </c>
       <c r="F109" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="G109" t="s">
         <v>20</v>
@@ -7705,19 +7699,19 @@
         <v>1</v>
       </c>
       <c r="I109">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="J109" s="1">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="K109">
-        <v>44185</v>
+        <v>10000</v>
       </c>
       <c r="L109" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="M109" t="s">
-        <v>583</v>
+        <v>113</v>
       </c>
       <c r="N109" t="s">
         <v>22</v>
@@ -7728,22 +7722,25 @@
       <c r="P109" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>588</v>
+        <v>318</v>
       </c>
       <c r="B110" t="s">
-        <v>253</v>
+        <v>122</v>
       </c>
       <c r="C110" t="s">
-        <v>589</v>
+        <v>319</v>
       </c>
       <c r="D110" t="s">
-        <v>590</v>
+        <v>320</v>
       </c>
       <c r="E110" t="s">
-        <v>297</v>
+        <v>112</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
@@ -7752,22 +7749,22 @@
         <v>20</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>0.1</v>
+        <v>0.64</v>
       </c>
       <c r="J110" s="1">
-        <v>0.1</v>
+        <v>1.28</v>
       </c>
       <c r="K110">
-        <v>1235</v>
+        <v>2824</v>
       </c>
       <c r="L110" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="M110" t="s">
-        <v>591</v>
+        <v>321</v>
       </c>
       <c r="N110" t="s">
         <v>22</v>
@@ -7776,198 +7773,201 @@
         <v>30</v>
       </c>
       <c r="P110" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>592</v>
+        <v>379</v>
       </c>
       <c r="B111" t="s">
+        <v>380</v>
+      </c>
+      <c r="C111" t="s">
+        <v>381</v>
+      </c>
+      <c r="D111" t="s">
+        <v>382</v>
+      </c>
+      <c r="E111" t="s">
+        <v>383</v>
+      </c>
+      <c r="F111" t="s">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111">
+        <v>3</v>
+      </c>
+      <c r="I111">
+        <v>0.35</v>
+      </c>
+      <c r="J111" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="K111">
+        <v>597</v>
+      </c>
+      <c r="L111" t="s">
+        <v>154</v>
+      </c>
+      <c r="M111" t="s">
+        <v>384</v>
+      </c>
+      <c r="N111" t="s">
+        <v>22</v>
+      </c>
+      <c r="O111" t="s">
+        <v>30</v>
+      </c>
+      <c r="P111" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>236</v>
+      </c>
+      <c r="B112" t="s">
+        <v>190</v>
+      </c>
+      <c r="C112" t="s">
+        <v>237</v>
+      </c>
+      <c r="D112" t="s">
+        <v>238</v>
+      </c>
+      <c r="E112" t="s">
+        <v>239</v>
+      </c>
+      <c r="F112" t="s">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112">
+        <v>4</v>
+      </c>
+      <c r="I112">
+        <v>0.37</v>
+      </c>
+      <c r="J112" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="K112">
+        <v>26552</v>
+      </c>
+      <c r="L112" t="s">
+        <v>154</v>
+      </c>
+      <c r="M112" t="s">
+        <v>240</v>
+      </c>
+      <c r="N112" t="s">
+        <v>22</v>
+      </c>
+      <c r="O112" t="s">
+        <v>241</v>
+      </c>
+      <c r="P112" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>824500500</v>
+      </c>
+      <c r="B113" t="s">
+        <v>60</v>
+      </c>
+      <c r="C113" t="s">
+        <v>144</v>
+      </c>
+      <c r="D113" t="s">
+        <v>145</v>
+      </c>
+      <c r="E113" t="s">
+        <v>146</v>
+      </c>
+      <c r="F113" t="s">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
+        <v>0.27</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="K113">
+        <v>184</v>
+      </c>
+      <c r="L113" t="s">
+        <v>147</v>
+      </c>
+      <c r="M113" t="s">
+        <v>148</v>
+      </c>
+      <c r="N113" t="s">
+        <v>22</v>
+      </c>
+      <c r="O113" t="s">
+        <v>30</v>
+      </c>
+      <c r="P113" t="s">
+        <v>31</v>
+      </c>
+      <c r="R113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>453</v>
+      </c>
+      <c r="B114" t="s">
         <v>79</v>
       </c>
-      <c r="C111" t="s">
-        <v>593</v>
-      </c>
-      <c r="D111" t="s">
-        <v>594</v>
-      </c>
-      <c r="E111" t="s">
-        <v>595</v>
-      </c>
-      <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s">
-        <v>20</v>
-      </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
-      <c r="I111">
-        <v>0.1</v>
-      </c>
-      <c r="J111" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="K111">
-        <v>43713</v>
-      </c>
-      <c r="L111" t="s">
+      <c r="C114" t="s">
+        <v>454</v>
+      </c>
+      <c r="D114" t="s">
+        <v>455</v>
+      </c>
+      <c r="E114" t="s">
+        <v>193</v>
+      </c>
+      <c r="F114" t="s">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114">
+        <v>6</v>
+      </c>
+      <c r="I114">
+        <v>0.71</v>
+      </c>
+      <c r="J114" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="K114">
+        <v>9451</v>
+      </c>
+      <c r="L114" t="s">
         <v>315</v>
       </c>
-      <c r="M111" t="s">
-        <v>596</v>
-      </c>
-      <c r="N111" t="s">
-        <v>22</v>
-      </c>
-      <c r="O111" t="s">
-        <v>30</v>
-      </c>
-      <c r="P111" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>597</v>
-      </c>
-      <c r="B112" t="s">
-        <v>253</v>
-      </c>
-      <c r="C112" t="s">
-        <v>598</v>
-      </c>
-      <c r="D112" t="s">
-        <v>599</v>
-      </c>
-      <c r="E112" t="s">
-        <v>600</v>
-      </c>
-      <c r="F112" t="s">
-        <v>19</v>
-      </c>
-      <c r="G112" t="s">
-        <v>20</v>
-      </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="I112">
-        <v>0.1</v>
-      </c>
-      <c r="J112" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="K112">
-        <v>12098</v>
-      </c>
-      <c r="L112" t="s">
-        <v>58</v>
-      </c>
-      <c r="M112" t="s">
-        <v>601</v>
-      </c>
-      <c r="N112" t="s">
-        <v>22</v>
-      </c>
-      <c r="O112" t="s">
-        <v>30</v>
-      </c>
-      <c r="P112" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>602</v>
-      </c>
-      <c r="B113" t="s">
-        <v>253</v>
-      </c>
-      <c r="C113" t="s">
-        <v>603</v>
-      </c>
-      <c r="D113" t="s">
-        <v>604</v>
-      </c>
-      <c r="E113" t="s">
-        <v>299</v>
-      </c>
-      <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s">
-        <v>20</v>
-      </c>
-      <c r="H113">
-        <v>3</v>
-      </c>
-      <c r="I113">
-        <v>0.1</v>
-      </c>
-      <c r="J113" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="K113">
-        <v>26088</v>
-      </c>
-      <c r="L113" t="s">
-        <v>58</v>
-      </c>
-      <c r="M113" t="s">
-        <v>605</v>
-      </c>
-      <c r="N113" t="s">
-        <v>22</v>
-      </c>
-      <c r="O113" t="s">
-        <v>30</v>
-      </c>
-      <c r="P113" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>606</v>
-      </c>
-      <c r="B114" t="s">
-        <v>85</v>
-      </c>
-      <c r="C114" t="s">
-        <v>607</v>
-      </c>
-      <c r="D114" t="s">
-        <v>608</v>
-      </c>
-      <c r="E114" t="s">
-        <v>476</v>
-      </c>
-      <c r="F114" t="s">
-        <v>19</v>
-      </c>
-      <c r="G114" t="s">
-        <v>20</v>
-      </c>
-      <c r="H114">
-        <v>3</v>
-      </c>
-      <c r="I114">
-        <v>0.18</v>
-      </c>
-      <c r="J114" s="1">
-        <v>0.54</v>
-      </c>
-      <c r="K114">
-        <v>115389</v>
-      </c>
-      <c r="L114" t="s">
-        <v>58</v>
-      </c>
       <c r="M114" t="s">
-        <v>609</v>
+        <v>456</v>
       </c>
       <c r="N114" t="s">
         <v>22</v>
@@ -7976,27 +7976,27 @@
         <v>30</v>
       </c>
       <c r="P114" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>584</v>
+        <v>503</v>
       </c>
       <c r="B115" t="s">
-        <v>266</v>
+        <v>504</v>
       </c>
       <c r="C115" t="s">
-        <v>585</v>
+        <v>505</v>
       </c>
       <c r="D115" t="s">
-        <v>586</v>
+        <v>506</v>
       </c>
       <c r="E115" t="s">
-        <v>582</v>
+        <v>507</v>
       </c>
       <c r="F115" t="s">
-        <v>57</v>
+        <v>508</v>
       </c>
       <c r="G115" t="s">
         <v>20</v>
@@ -8005,22 +8005,22 @@
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0.43</v>
+        <v>12.47</v>
       </c>
       <c r="J115" s="1">
-        <v>0.43</v>
+        <v>12.47</v>
       </c>
       <c r="K115">
-        <v>2606</v>
+        <v>160</v>
       </c>
       <c r="L115" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="M115" t="s">
-        <v>587</v>
+        <v>509</v>
       </c>
       <c r="N115" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O115" t="s">
         <v>30</v>
@@ -8031,7 +8031,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R115">
-    <sortCondition ref="D2:D115"/>
+    <sortCondition ref="M2:M115"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
